--- a/storage/template/report stock opname.xlsx
+++ b/storage/template/report stock opname.xlsx
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="18">
   <si>
     <t>PT. AISIN INDONESIA AUTOMOTIVE</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>Checker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREA </t>
   </si>
   <si>
     <t>NO.</t>
@@ -586,7 +583,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +651,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -867,6 +871,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -893,14 +903,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14148,7 +14152,7 @@
   <dimension ref="B1:J434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="O7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14183,8 +14187,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -14198,12 +14203,10 @@
       <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -14211,50 +14214,50 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="12" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14264,16 +14267,16 @@
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14284,16 +14287,16 @@
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14304,16 +14307,16 @@
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14324,16 +14327,16 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14344,16 +14347,16 @@
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14364,16 +14367,16 @@
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14384,16 +14387,16 @@
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14404,16 +14407,16 @@
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14424,16 +14427,16 @@
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14444,16 +14447,16 @@
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14464,16 +14467,16 @@
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14484,16 +14487,16 @@
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14504,16 +14507,16 @@
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14524,16 +14527,16 @@
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
       <c r="E20" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14544,16 +14547,16 @@
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14564,16 +14567,16 @@
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14584,16 +14587,16 @@
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14604,16 +14607,16 @@
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14624,16 +14627,16 @@
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14644,16 +14647,16 @@
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14664,16 +14667,16 @@
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14684,16 +14687,16 @@
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14704,16 +14707,16 @@
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14724,16 +14727,16 @@
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14744,16 +14747,16 @@
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14764,16 +14767,16 @@
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14784,16 +14787,16 @@
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14804,16 +14807,16 @@
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14824,16 +14827,16 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14844,16 +14847,16 @@
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14864,16 +14867,16 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14884,16 +14887,16 @@
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14904,16 +14907,16 @@
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
       <c r="E39" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14924,16 +14927,16 @@
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14944,16 +14947,16 @@
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
       <c r="E41" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14964,16 +14967,16 @@
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14984,16 +14987,16 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15004,16 +15007,16 @@
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15024,16 +15027,16 @@
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="E45" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15044,16 +15047,16 @@
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="E46" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15064,16 +15067,16 @@
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="E47" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15084,16 +15087,16 @@
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="E48" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15104,16 +15107,16 @@
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
       <c r="E49" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15124,16 +15127,16 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15144,16 +15147,16 @@
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
       <c r="E51" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15164,16 +15167,16 @@
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
       <c r="E52" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15184,16 +15187,16 @@
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
       <c r="E53" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15204,16 +15207,16 @@
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
       <c r="E54" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15224,16 +15227,16 @@
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
       <c r="E55" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15244,16 +15247,16 @@
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="E56" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15264,16 +15267,16 @@
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
       <c r="E57" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15284,16 +15287,16 @@
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
       <c r="E58" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15304,16 +15307,16 @@
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="E59" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15324,16 +15327,16 @@
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
       <c r="E60" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15344,16 +15347,16 @@
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15364,16 +15367,16 @@
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="E62" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15384,16 +15387,16 @@
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15404,16 +15407,16 @@
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
       <c r="E64" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15424,16 +15427,16 @@
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
       <c r="E65" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15444,16 +15447,16 @@
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
       <c r="E66" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15464,16 +15467,16 @@
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
       <c r="E67" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15484,16 +15487,16 @@
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
       <c r="E68" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15504,16 +15507,16 @@
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
       <c r="E69" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15524,16 +15527,16 @@
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
       <c r="E70" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15544,16 +15547,16 @@
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
       <c r="E71" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15564,16 +15567,16 @@
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
       <c r="E72" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15584,16 +15587,16 @@
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
       <c r="E73" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15604,16 +15607,16 @@
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
       <c r="E74" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15624,16 +15627,16 @@
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
       <c r="E75" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15644,16 +15647,16 @@
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
       <c r="E76" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15664,16 +15667,16 @@
       <c r="C77" s="15"/>
       <c r="D77" s="16"/>
       <c r="E77" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15684,16 +15687,16 @@
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
       <c r="E78" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78" s="17"/>
       <c r="G78" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15704,16 +15707,16 @@
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="E79" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15724,16 +15727,16 @@
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
       <c r="E80" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15744,16 +15747,16 @@
       <c r="C81" s="15"/>
       <c r="D81" s="16"/>
       <c r="E81" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15764,16 +15767,16 @@
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
       <c r="E82" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15784,16 +15787,16 @@
       <c r="C83" s="15"/>
       <c r="D83" s="16"/>
       <c r="E83" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15804,16 +15807,16 @@
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
       <c r="E84" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15824,16 +15827,16 @@
       <c r="C85" s="15"/>
       <c r="D85" s="16"/>
       <c r="E85" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15844,16 +15847,16 @@
       <c r="C86" s="15"/>
       <c r="D86" s="16"/>
       <c r="E86" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86" s="17"/>
       <c r="G86" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15864,16 +15867,16 @@
       <c r="C87" s="15"/>
       <c r="D87" s="16"/>
       <c r="E87" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15884,16 +15887,16 @@
       <c r="C88" s="15"/>
       <c r="D88" s="16"/>
       <c r="E88" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15904,16 +15907,16 @@
       <c r="C89" s="15"/>
       <c r="D89" s="16"/>
       <c r="E89" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15924,16 +15927,16 @@
       <c r="C90" s="15"/>
       <c r="D90" s="16"/>
       <c r="E90" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15944,16 +15947,16 @@
       <c r="C91" s="15"/>
       <c r="D91" s="16"/>
       <c r="E91" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15964,16 +15967,16 @@
       <c r="C92" s="15"/>
       <c r="D92" s="16"/>
       <c r="E92" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15984,16 +15987,16 @@
       <c r="C93" s="15"/>
       <c r="D93" s="16"/>
       <c r="E93" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16004,16 +16007,16 @@
       <c r="C94" s="15"/>
       <c r="D94" s="16"/>
       <c r="E94" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16024,16 +16027,16 @@
       <c r="C95" s="15"/>
       <c r="D95" s="16"/>
       <c r="E95" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16044,16 +16047,16 @@
       <c r="C96" s="15"/>
       <c r="D96" s="16"/>
       <c r="E96" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16064,16 +16067,16 @@
       <c r="C97" s="15"/>
       <c r="D97" s="16"/>
       <c r="E97" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16084,16 +16087,16 @@
       <c r="C98" s="15"/>
       <c r="D98" s="16"/>
       <c r="E98" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16104,16 +16107,16 @@
       <c r="C99" s="15"/>
       <c r="D99" s="16"/>
       <c r="E99" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16124,16 +16127,16 @@
       <c r="C100" s="15"/>
       <c r="D100" s="16"/>
       <c r="E100" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16144,16 +16147,16 @@
       <c r="C101" s="15"/>
       <c r="D101" s="16"/>
       <c r="E101" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16164,16 +16167,16 @@
       <c r="C102" s="15"/>
       <c r="D102" s="16"/>
       <c r="E102" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16184,16 +16187,16 @@
       <c r="C103" s="15"/>
       <c r="D103" s="16"/>
       <c r="E103" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16204,16 +16207,16 @@
       <c r="C104" s="15"/>
       <c r="D104" s="16"/>
       <c r="E104" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16224,16 +16227,16 @@
       <c r="C105" s="15"/>
       <c r="D105" s="16"/>
       <c r="E105" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16244,16 +16247,16 @@
       <c r="C106" s="15"/>
       <c r="D106" s="16"/>
       <c r="E106" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16264,16 +16267,16 @@
       <c r="C107" s="15"/>
       <c r="D107" s="16"/>
       <c r="E107" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16284,16 +16287,16 @@
       <c r="C108" s="15"/>
       <c r="D108" s="16"/>
       <c r="E108" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16304,16 +16307,16 @@
       <c r="C109" s="15"/>
       <c r="D109" s="16"/>
       <c r="E109" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16324,16 +16327,16 @@
       <c r="C110" s="15"/>
       <c r="D110" s="16"/>
       <c r="E110" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16344,16 +16347,16 @@
       <c r="C111" s="15"/>
       <c r="D111" s="16"/>
       <c r="E111" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16364,16 +16367,16 @@
       <c r="C112" s="15"/>
       <c r="D112" s="16"/>
       <c r="E112" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16384,16 +16387,16 @@
       <c r="C113" s="15"/>
       <c r="D113" s="16"/>
       <c r="E113" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
       <c r="J113" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16404,16 +16407,16 @@
       <c r="C114" s="15"/>
       <c r="D114" s="16"/>
       <c r="E114" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16424,16 +16427,16 @@
       <c r="C115" s="15"/>
       <c r="D115" s="16"/>
       <c r="E115" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
       <c r="J115" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16444,16 +16447,16 @@
       <c r="C116" s="15"/>
       <c r="D116" s="16"/>
       <c r="E116" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
       <c r="J116" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16464,16 +16467,16 @@
       <c r="C117" s="15"/>
       <c r="D117" s="16"/>
       <c r="E117" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16484,16 +16487,16 @@
       <c r="C118" s="15"/>
       <c r="D118" s="16"/>
       <c r="E118" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16504,16 +16507,16 @@
       <c r="C119" s="15"/>
       <c r="D119" s="16"/>
       <c r="E119" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16524,16 +16527,16 @@
       <c r="C120" s="15"/>
       <c r="D120" s="16"/>
       <c r="E120" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16544,16 +16547,16 @@
       <c r="C121" s="15"/>
       <c r="D121" s="16"/>
       <c r="E121" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
       <c r="J121" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16564,16 +16567,16 @@
       <c r="C122" s="15"/>
       <c r="D122" s="16"/>
       <c r="E122" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16584,16 +16587,16 @@
       <c r="C123" s="15"/>
       <c r="D123" s="16"/>
       <c r="E123" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
       <c r="J123" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16604,16 +16607,16 @@
       <c r="C124" s="15"/>
       <c r="D124" s="16"/>
       <c r="E124" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
       <c r="J124" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16624,16 +16627,16 @@
       <c r="C125" s="15"/>
       <c r="D125" s="16"/>
       <c r="E125" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
       <c r="J125" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16644,16 +16647,16 @@
       <c r="C126" s="15"/>
       <c r="D126" s="16"/>
       <c r="E126" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
       <c r="J126" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16664,16 +16667,16 @@
       <c r="C127" s="15"/>
       <c r="D127" s="16"/>
       <c r="E127" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
       <c r="J127" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16684,16 +16687,16 @@
       <c r="C128" s="15"/>
       <c r="D128" s="16"/>
       <c r="E128" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
       <c r="J128" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16704,16 +16707,16 @@
       <c r="C129" s="15"/>
       <c r="D129" s="16"/>
       <c r="E129" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
       <c r="J129" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16724,16 +16727,16 @@
       <c r="C130" s="15"/>
       <c r="D130" s="16"/>
       <c r="E130" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
       <c r="J130" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16744,16 +16747,16 @@
       <c r="C131" s="15"/>
       <c r="D131" s="16"/>
       <c r="E131" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
       <c r="J131" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16764,16 +16767,16 @@
       <c r="C132" s="15"/>
       <c r="D132" s="16"/>
       <c r="E132" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
       <c r="J132" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16784,16 +16787,16 @@
       <c r="C133" s="15"/>
       <c r="D133" s="16"/>
       <c r="E133" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
       <c r="J133" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16804,16 +16807,16 @@
       <c r="C134" s="15"/>
       <c r="D134" s="16"/>
       <c r="E134" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
       <c r="J134" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16824,16 +16827,16 @@
       <c r="C135" s="15"/>
       <c r="D135" s="16"/>
       <c r="E135" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
       <c r="J135" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16844,16 +16847,16 @@
       <c r="C136" s="15"/>
       <c r="D136" s="16"/>
       <c r="E136" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
       <c r="J136" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16864,16 +16867,16 @@
       <c r="C137" s="15"/>
       <c r="D137" s="16"/>
       <c r="E137" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
       <c r="J137" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16884,16 +16887,16 @@
       <c r="C138" s="15"/>
       <c r="D138" s="16"/>
       <c r="E138" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
       <c r="J138" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16904,16 +16907,16 @@
       <c r="C139" s="15"/>
       <c r="D139" s="16"/>
       <c r="E139" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F139" s="17"/>
       <c r="G139" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
       <c r="J139" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16924,16 +16927,16 @@
       <c r="C140" s="15"/>
       <c r="D140" s="16"/>
       <c r="E140" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
       <c r="J140" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16944,16 +16947,16 @@
       <c r="C141" s="15"/>
       <c r="D141" s="16"/>
       <c r="E141" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F141" s="17"/>
       <c r="G141" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
       <c r="J141" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16964,16 +16967,16 @@
       <c r="C142" s="15"/>
       <c r="D142" s="16"/>
       <c r="E142" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
       <c r="J142" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16984,16 +16987,16 @@
       <c r="C143" s="15"/>
       <c r="D143" s="16"/>
       <c r="E143" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
       <c r="J143" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17004,16 +17007,16 @@
       <c r="C144" s="15"/>
       <c r="D144" s="16"/>
       <c r="E144" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
       <c r="J144" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17024,16 +17027,16 @@
       <c r="C145" s="15"/>
       <c r="D145" s="16"/>
       <c r="E145" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
       <c r="J145" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17044,16 +17047,16 @@
       <c r="C146" s="15"/>
       <c r="D146" s="16"/>
       <c r="E146" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
       <c r="J146" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17064,16 +17067,16 @@
       <c r="C147" s="15"/>
       <c r="D147" s="16"/>
       <c r="E147" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
       <c r="J147" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17084,16 +17087,16 @@
       <c r="C148" s="15"/>
       <c r="D148" s="16"/>
       <c r="E148" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
       <c r="J148" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17104,16 +17107,16 @@
       <c r="C149" s="15"/>
       <c r="D149" s="16"/>
       <c r="E149" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
       <c r="J149" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17124,16 +17127,16 @@
       <c r="C150" s="15"/>
       <c r="D150" s="16"/>
       <c r="E150" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
       <c r="J150" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17144,16 +17147,16 @@
       <c r="C151" s="15"/>
       <c r="D151" s="16"/>
       <c r="E151" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
       <c r="J151" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17164,16 +17167,16 @@
       <c r="C152" s="15"/>
       <c r="D152" s="16"/>
       <c r="E152" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
       <c r="J152" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17184,16 +17187,16 @@
       <c r="C153" s="15"/>
       <c r="D153" s="16"/>
       <c r="E153" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
       <c r="J153" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17204,16 +17207,16 @@
       <c r="C154" s="15"/>
       <c r="D154" s="16"/>
       <c r="E154" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
       <c r="J154" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17224,16 +17227,16 @@
       <c r="C155" s="15"/>
       <c r="D155" s="16"/>
       <c r="E155" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
       <c r="J155" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17244,16 +17247,16 @@
       <c r="C156" s="15"/>
       <c r="D156" s="16"/>
       <c r="E156" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
       <c r="J156" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17264,16 +17267,16 @@
       <c r="C157" s="15"/>
       <c r="D157" s="16"/>
       <c r="E157" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
       <c r="J157" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17284,16 +17287,16 @@
       <c r="C158" s="15"/>
       <c r="D158" s="16"/>
       <c r="E158" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
       <c r="J158" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17304,16 +17307,16 @@
       <c r="C159" s="15"/>
       <c r="D159" s="16"/>
       <c r="E159" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
       <c r="J159" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17324,16 +17327,16 @@
       <c r="C160" s="15"/>
       <c r="D160" s="16"/>
       <c r="E160" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H160" s="17"/>
       <c r="I160" s="17"/>
       <c r="J160" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17344,16 +17347,16 @@
       <c r="C161" s="15"/>
       <c r="D161" s="16"/>
       <c r="E161" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H161" s="17"/>
       <c r="I161" s="17"/>
       <c r="J161" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17364,16 +17367,16 @@
       <c r="C162" s="15"/>
       <c r="D162" s="16"/>
       <c r="E162" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
       <c r="J162" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17384,16 +17387,16 @@
       <c r="C163" s="15"/>
       <c r="D163" s="16"/>
       <c r="E163" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
       <c r="J163" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17404,16 +17407,16 @@
       <c r="C164" s="15"/>
       <c r="D164" s="16"/>
       <c r="E164" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F164" s="17"/>
       <c r="G164" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
       <c r="J164" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17424,16 +17427,16 @@
       <c r="C165" s="15"/>
       <c r="D165" s="16"/>
       <c r="E165" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
       <c r="J165" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17444,16 +17447,16 @@
       <c r="C166" s="15"/>
       <c r="D166" s="16"/>
       <c r="E166" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H166" s="17"/>
       <c r="I166" s="17"/>
       <c r="J166" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17464,16 +17467,16 @@
       <c r="C167" s="15"/>
       <c r="D167" s="16"/>
       <c r="E167" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
       <c r="J167" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17484,16 +17487,16 @@
       <c r="C168" s="15"/>
       <c r="D168" s="16"/>
       <c r="E168" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F168" s="17"/>
       <c r="G168" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
       <c r="J168" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17504,16 +17507,16 @@
       <c r="C169" s="15"/>
       <c r="D169" s="16"/>
       <c r="E169" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F169" s="17"/>
       <c r="G169" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
       <c r="J169" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17524,16 +17527,16 @@
       <c r="C170" s="15"/>
       <c r="D170" s="16"/>
       <c r="E170" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
       <c r="J170" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17544,16 +17547,16 @@
       <c r="C171" s="15"/>
       <c r="D171" s="16"/>
       <c r="E171" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F171" s="17"/>
       <c r="G171" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
       <c r="J171" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17564,16 +17567,16 @@
       <c r="C172" s="15"/>
       <c r="D172" s="16"/>
       <c r="E172" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F172" s="17"/>
       <c r="G172" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
       <c r="J172" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17584,16 +17587,16 @@
       <c r="C173" s="15"/>
       <c r="D173" s="16"/>
       <c r="E173" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F173" s="17"/>
       <c r="G173" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
       <c r="J173" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17604,16 +17607,16 @@
       <c r="C174" s="15"/>
       <c r="D174" s="16"/>
       <c r="E174" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F174" s="17"/>
       <c r="G174" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H174" s="17"/>
       <c r="I174" s="17"/>
       <c r="J174" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17624,16 +17627,16 @@
       <c r="C175" s="15"/>
       <c r="D175" s="16"/>
       <c r="E175" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
       <c r="J175" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17644,16 +17647,16 @@
       <c r="C176" s="15"/>
       <c r="D176" s="16"/>
       <c r="E176" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F176" s="17"/>
       <c r="G176" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
       <c r="J176" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17664,16 +17667,16 @@
       <c r="C177" s="15"/>
       <c r="D177" s="16"/>
       <c r="E177" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F177" s="17"/>
       <c r="G177" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
       <c r="J177" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17684,16 +17687,16 @@
       <c r="C178" s="15"/>
       <c r="D178" s="16"/>
       <c r="E178" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F178" s="17"/>
       <c r="G178" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
       <c r="J178" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17704,16 +17707,16 @@
       <c r="C179" s="15"/>
       <c r="D179" s="16"/>
       <c r="E179" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F179" s="17"/>
       <c r="G179" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H179" s="17"/>
       <c r="I179" s="17"/>
       <c r="J179" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17724,16 +17727,16 @@
       <c r="C180" s="15"/>
       <c r="D180" s="16"/>
       <c r="E180" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F180" s="17"/>
       <c r="G180" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
       <c r="J180" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17744,16 +17747,16 @@
       <c r="C181" s="15"/>
       <c r="D181" s="16"/>
       <c r="E181" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F181" s="17"/>
       <c r="G181" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
       <c r="J181" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17764,16 +17767,16 @@
       <c r="C182" s="15"/>
       <c r="D182" s="16"/>
       <c r="E182" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F182" s="17"/>
       <c r="G182" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
       <c r="J182" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17784,16 +17787,16 @@
       <c r="C183" s="15"/>
       <c r="D183" s="16"/>
       <c r="E183" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F183" s="17"/>
       <c r="G183" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
       <c r="J183" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17804,16 +17807,16 @@
       <c r="C184" s="15"/>
       <c r="D184" s="16"/>
       <c r="E184" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F184" s="17"/>
       <c r="G184" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
       <c r="J184" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17824,16 +17827,16 @@
       <c r="C185" s="15"/>
       <c r="D185" s="16"/>
       <c r="E185" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F185" s="17"/>
       <c r="G185" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
       <c r="J185" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17844,16 +17847,16 @@
       <c r="C186" s="15"/>
       <c r="D186" s="16"/>
       <c r="E186" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F186" s="17"/>
       <c r="G186" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
       <c r="J186" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17864,16 +17867,16 @@
       <c r="C187" s="15"/>
       <c r="D187" s="16"/>
       <c r="E187" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F187" s="17"/>
       <c r="G187" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
       <c r="J187" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17884,16 +17887,16 @@
       <c r="C188" s="15"/>
       <c r="D188" s="16"/>
       <c r="E188" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F188" s="17"/>
       <c r="G188" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
       <c r="J188" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17904,16 +17907,16 @@
       <c r="C189" s="15"/>
       <c r="D189" s="16"/>
       <c r="E189" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F189" s="17"/>
       <c r="G189" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
       <c r="J189" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17924,16 +17927,16 @@
       <c r="C190" s="15"/>
       <c r="D190" s="16"/>
       <c r="E190" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F190" s="17"/>
       <c r="G190" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
       <c r="J190" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17944,16 +17947,16 @@
       <c r="C191" s="15"/>
       <c r="D191" s="16"/>
       <c r="E191" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F191" s="17"/>
       <c r="G191" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
       <c r="J191" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17964,16 +17967,16 @@
       <c r="C192" s="15"/>
       <c r="D192" s="16"/>
       <c r="E192" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F192" s="17"/>
       <c r="G192" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
       <c r="J192" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17984,16 +17987,16 @@
       <c r="C193" s="15"/>
       <c r="D193" s="16"/>
       <c r="E193" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F193" s="17"/>
       <c r="G193" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H193" s="17"/>
       <c r="I193" s="17"/>
       <c r="J193" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18004,16 +18007,16 @@
       <c r="C194" s="15"/>
       <c r="D194" s="16"/>
       <c r="E194" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F194" s="17"/>
       <c r="G194" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
       <c r="J194" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18024,16 +18027,16 @@
       <c r="C195" s="15"/>
       <c r="D195" s="16"/>
       <c r="E195" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F195" s="17"/>
       <c r="G195" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
       <c r="J195" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18044,16 +18047,16 @@
       <c r="C196" s="15"/>
       <c r="D196" s="16"/>
       <c r="E196" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F196" s="17"/>
       <c r="G196" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H196" s="17"/>
       <c r="I196" s="17"/>
       <c r="J196" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18064,16 +18067,16 @@
       <c r="C197" s="15"/>
       <c r="D197" s="16"/>
       <c r="E197" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F197" s="17"/>
       <c r="G197" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
       <c r="J197" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18084,16 +18087,16 @@
       <c r="C198" s="15"/>
       <c r="D198" s="16"/>
       <c r="E198" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F198" s="17"/>
       <c r="G198" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H198" s="17"/>
       <c r="I198" s="17"/>
       <c r="J198" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18104,16 +18107,16 @@
       <c r="C199" s="15"/>
       <c r="D199" s="16"/>
       <c r="E199" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F199" s="17"/>
       <c r="G199" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
       <c r="J199" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18124,16 +18127,16 @@
       <c r="C200" s="15"/>
       <c r="D200" s="16"/>
       <c r="E200" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F200" s="17"/>
       <c r="G200" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H200" s="17"/>
       <c r="I200" s="17"/>
       <c r="J200" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18144,16 +18147,16 @@
       <c r="C201" s="15"/>
       <c r="D201" s="16"/>
       <c r="E201" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F201" s="17"/>
       <c r="G201" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
       <c r="J201" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18164,16 +18167,16 @@
       <c r="C202" s="15"/>
       <c r="D202" s="16"/>
       <c r="E202" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F202" s="17"/>
       <c r="G202" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
       <c r="J202" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18184,16 +18187,16 @@
       <c r="C203" s="15"/>
       <c r="D203" s="16"/>
       <c r="E203" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F203" s="17"/>
       <c r="G203" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
       <c r="J203" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18204,16 +18207,16 @@
       <c r="C204" s="15"/>
       <c r="D204" s="16"/>
       <c r="E204" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F204" s="17"/>
       <c r="G204" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H204" s="17"/>
       <c r="I204" s="17"/>
       <c r="J204" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18224,16 +18227,16 @@
       <c r="C205" s="15"/>
       <c r="D205" s="16"/>
       <c r="E205" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F205" s="17"/>
       <c r="G205" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H205" s="17"/>
       <c r="I205" s="17"/>
       <c r="J205" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18244,16 +18247,16 @@
       <c r="C206" s="15"/>
       <c r="D206" s="16"/>
       <c r="E206" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F206" s="17"/>
       <c r="G206" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
       <c r="J206" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18264,16 +18267,16 @@
       <c r="C207" s="15"/>
       <c r="D207" s="16"/>
       <c r="E207" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F207" s="17"/>
       <c r="G207" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
       <c r="J207" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18284,16 +18287,16 @@
       <c r="C208" s="15"/>
       <c r="D208" s="16"/>
       <c r="E208" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F208" s="17"/>
       <c r="G208" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
       <c r="J208" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18304,16 +18307,16 @@
       <c r="C209" s="15"/>
       <c r="D209" s="16"/>
       <c r="E209" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F209" s="17"/>
       <c r="G209" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
       <c r="J209" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18324,16 +18327,16 @@
       <c r="C210" s="15"/>
       <c r="D210" s="16"/>
       <c r="E210" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F210" s="17"/>
       <c r="G210" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
       <c r="J210" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18344,16 +18347,16 @@
       <c r="C211" s="15"/>
       <c r="D211" s="16"/>
       <c r="E211" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F211" s="17"/>
       <c r="G211" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
       <c r="J211" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18364,16 +18367,16 @@
       <c r="C212" s="15"/>
       <c r="D212" s="16"/>
       <c r="E212" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F212" s="17"/>
       <c r="G212" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H212" s="17"/>
       <c r="I212" s="17"/>
       <c r="J212" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18384,16 +18387,16 @@
       <c r="C213" s="15"/>
       <c r="D213" s="16"/>
       <c r="E213" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F213" s="17"/>
       <c r="G213" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H213" s="17"/>
       <c r="I213" s="17"/>
       <c r="J213" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18404,16 +18407,16 @@
       <c r="C214" s="15"/>
       <c r="D214" s="16"/>
       <c r="E214" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F214" s="17"/>
       <c r="G214" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18424,16 +18427,16 @@
       <c r="C215" s="15"/>
       <c r="D215" s="16"/>
       <c r="E215" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F215" s="17"/>
       <c r="G215" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18444,16 +18447,16 @@
       <c r="C216" s="15"/>
       <c r="D216" s="16"/>
       <c r="E216" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F216" s="17"/>
       <c r="G216" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18464,16 +18467,16 @@
       <c r="C217" s="15"/>
       <c r="D217" s="16"/>
       <c r="E217" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F217" s="17"/>
       <c r="G217" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
       <c r="J217" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18484,16 +18487,16 @@
       <c r="C218" s="15"/>
       <c r="D218" s="16"/>
       <c r="E218" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F218" s="17"/>
       <c r="G218" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
       <c r="J218" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18504,16 +18507,16 @@
       <c r="C219" s="15"/>
       <c r="D219" s="16"/>
       <c r="E219" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F219" s="17"/>
       <c r="G219" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
       <c r="J219" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18524,16 +18527,16 @@
       <c r="C220" s="15"/>
       <c r="D220" s="16"/>
       <c r="E220" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F220" s="17"/>
       <c r="G220" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
       <c r="J220" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18544,16 +18547,16 @@
       <c r="C221" s="15"/>
       <c r="D221" s="16"/>
       <c r="E221" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F221" s="17"/>
       <c r="G221" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H221" s="17"/>
       <c r="I221" s="17"/>
       <c r="J221" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18564,16 +18567,16 @@
       <c r="C222" s="15"/>
       <c r="D222" s="16"/>
       <c r="E222" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F222" s="17"/>
       <c r="G222" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H222" s="17"/>
       <c r="I222" s="17"/>
       <c r="J222" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18584,16 +18587,16 @@
       <c r="C223" s="15"/>
       <c r="D223" s="16"/>
       <c r="E223" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F223" s="17"/>
       <c r="G223" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H223" s="17"/>
       <c r="I223" s="17"/>
       <c r="J223" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18604,16 +18607,16 @@
       <c r="C224" s="15"/>
       <c r="D224" s="16"/>
       <c r="E224" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F224" s="17"/>
       <c r="G224" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H224" s="17"/>
       <c r="I224" s="17"/>
       <c r="J224" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18624,16 +18627,16 @@
       <c r="C225" s="15"/>
       <c r="D225" s="16"/>
       <c r="E225" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F225" s="17"/>
       <c r="G225" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18644,16 +18647,16 @@
       <c r="C226" s="15"/>
       <c r="D226" s="16"/>
       <c r="E226" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F226" s="17"/>
       <c r="G226" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H226" s="17"/>
       <c r="I226" s="17"/>
       <c r="J226" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18664,16 +18667,16 @@
       <c r="C227" s="15"/>
       <c r="D227" s="16"/>
       <c r="E227" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F227" s="17"/>
       <c r="G227" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
       <c r="J227" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18684,16 +18687,16 @@
       <c r="C228" s="15"/>
       <c r="D228" s="16"/>
       <c r="E228" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F228" s="17"/>
       <c r="G228" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H228" s="17"/>
       <c r="I228" s="17"/>
       <c r="J228" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18704,16 +18707,16 @@
       <c r="C229" s="15"/>
       <c r="D229" s="16"/>
       <c r="E229" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F229" s="17"/>
       <c r="G229" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
       <c r="J229" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18724,16 +18727,16 @@
       <c r="C230" s="15"/>
       <c r="D230" s="16"/>
       <c r="E230" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F230" s="17"/>
       <c r="G230" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H230" s="17"/>
       <c r="I230" s="17"/>
       <c r="J230" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18744,16 +18747,16 @@
       <c r="C231" s="15"/>
       <c r="D231" s="16"/>
       <c r="E231" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F231" s="17"/>
       <c r="G231" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
       <c r="J231" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18764,16 +18767,16 @@
       <c r="C232" s="15"/>
       <c r="D232" s="16"/>
       <c r="E232" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F232" s="17"/>
       <c r="G232" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H232" s="17"/>
       <c r="I232" s="17"/>
       <c r="J232" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18784,16 +18787,16 @@
       <c r="C233" s="15"/>
       <c r="D233" s="16"/>
       <c r="E233" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F233" s="17"/>
       <c r="G233" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
       <c r="J233" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18804,16 +18807,16 @@
       <c r="C234" s="15"/>
       <c r="D234" s="16"/>
       <c r="E234" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F234" s="17"/>
       <c r="G234" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
       <c r="J234" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18824,16 +18827,16 @@
       <c r="C235" s="15"/>
       <c r="D235" s="16"/>
       <c r="E235" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F235" s="17"/>
       <c r="G235" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
       <c r="J235" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18844,16 +18847,16 @@
       <c r="C236" s="15"/>
       <c r="D236" s="16"/>
       <c r="E236" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F236" s="17"/>
       <c r="G236" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
       <c r="J236" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18864,16 +18867,16 @@
       <c r="C237" s="15"/>
       <c r="D237" s="16"/>
       <c r="E237" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F237" s="17"/>
       <c r="G237" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H237" s="17"/>
       <c r="I237" s="17"/>
       <c r="J237" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18884,16 +18887,16 @@
       <c r="C238" s="15"/>
       <c r="D238" s="16"/>
       <c r="E238" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F238" s="17"/>
       <c r="G238" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H238" s="17"/>
       <c r="I238" s="17"/>
       <c r="J238" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18904,16 +18907,16 @@
       <c r="C239" s="15"/>
       <c r="D239" s="16"/>
       <c r="E239" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F239" s="17"/>
       <c r="G239" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H239" s="17"/>
       <c r="I239" s="17"/>
       <c r="J239" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18924,16 +18927,16 @@
       <c r="C240" s="15"/>
       <c r="D240" s="16"/>
       <c r="E240" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F240" s="17"/>
       <c r="G240" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H240" s="17"/>
       <c r="I240" s="17"/>
       <c r="J240" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18944,16 +18947,16 @@
       <c r="C241" s="15"/>
       <c r="D241" s="16"/>
       <c r="E241" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F241" s="17"/>
       <c r="G241" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H241" s="17"/>
       <c r="I241" s="17"/>
       <c r="J241" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18964,16 +18967,16 @@
       <c r="C242" s="15"/>
       <c r="D242" s="16"/>
       <c r="E242" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F242" s="17"/>
       <c r="G242" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H242" s="17"/>
       <c r="I242" s="17"/>
       <c r="J242" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -18984,16 +18987,16 @@
       <c r="C243" s="15"/>
       <c r="D243" s="16"/>
       <c r="E243" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F243" s="17"/>
       <c r="G243" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H243" s="17"/>
       <c r="I243" s="17"/>
       <c r="J243" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19004,16 +19007,16 @@
       <c r="C244" s="15"/>
       <c r="D244" s="16"/>
       <c r="E244" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F244" s="17"/>
       <c r="G244" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H244" s="17"/>
       <c r="I244" s="17"/>
       <c r="J244" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19024,16 +19027,16 @@
       <c r="C245" s="15"/>
       <c r="D245" s="16"/>
       <c r="E245" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F245" s="17"/>
       <c r="G245" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H245" s="17"/>
       <c r="I245" s="17"/>
       <c r="J245" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19044,16 +19047,16 @@
       <c r="C246" s="15"/>
       <c r="D246" s="16"/>
       <c r="E246" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F246" s="17"/>
       <c r="G246" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H246" s="17"/>
       <c r="I246" s="17"/>
       <c r="J246" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19064,16 +19067,16 @@
       <c r="C247" s="15"/>
       <c r="D247" s="16"/>
       <c r="E247" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F247" s="17"/>
       <c r="G247" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
       <c r="J247" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19084,16 +19087,16 @@
       <c r="C248" s="15"/>
       <c r="D248" s="16"/>
       <c r="E248" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F248" s="17"/>
       <c r="G248" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H248" s="17"/>
       <c r="I248" s="17"/>
       <c r="J248" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19104,16 +19107,16 @@
       <c r="C249" s="15"/>
       <c r="D249" s="16"/>
       <c r="E249" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F249" s="17"/>
       <c r="G249" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H249" s="17"/>
       <c r="I249" s="17"/>
       <c r="J249" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19124,16 +19127,16 @@
       <c r="C250" s="15"/>
       <c r="D250" s="16"/>
       <c r="E250" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F250" s="17"/>
       <c r="G250" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H250" s="17"/>
       <c r="I250" s="17"/>
       <c r="J250" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19144,16 +19147,16 @@
       <c r="C251" s="15"/>
       <c r="D251" s="16"/>
       <c r="E251" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F251" s="17"/>
       <c r="G251" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
       <c r="J251" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19164,16 +19167,16 @@
       <c r="C252" s="15"/>
       <c r="D252" s="16"/>
       <c r="E252" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F252" s="17"/>
       <c r="G252" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H252" s="17"/>
       <c r="I252" s="17"/>
       <c r="J252" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19184,16 +19187,16 @@
       <c r="C253" s="15"/>
       <c r="D253" s="16"/>
       <c r="E253" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F253" s="17"/>
       <c r="G253" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H253" s="17"/>
       <c r="I253" s="17"/>
       <c r="J253" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19204,16 +19207,16 @@
       <c r="C254" s="15"/>
       <c r="D254" s="16"/>
       <c r="E254" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F254" s="17"/>
       <c r="G254" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H254" s="17"/>
       <c r="I254" s="17"/>
       <c r="J254" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19224,16 +19227,16 @@
       <c r="C255" s="15"/>
       <c r="D255" s="16"/>
       <c r="E255" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F255" s="17"/>
       <c r="G255" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H255" s="17"/>
       <c r="I255" s="17"/>
       <c r="J255" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19244,16 +19247,16 @@
       <c r="C256" s="15"/>
       <c r="D256" s="16"/>
       <c r="E256" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F256" s="17"/>
       <c r="G256" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="17"/>
       <c r="J256" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19264,16 +19267,16 @@
       <c r="C257" s="15"/>
       <c r="D257" s="16"/>
       <c r="E257" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F257" s="17"/>
       <c r="G257" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
       <c r="J257" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19284,16 +19287,16 @@
       <c r="C258" s="15"/>
       <c r="D258" s="16"/>
       <c r="E258" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F258" s="17"/>
       <c r="G258" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H258" s="17"/>
       <c r="I258" s="17"/>
       <c r="J258" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19304,16 +19307,16 @@
       <c r="C259" s="15"/>
       <c r="D259" s="16"/>
       <c r="E259" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F259" s="17"/>
       <c r="G259" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H259" s="17"/>
       <c r="I259" s="17"/>
       <c r="J259" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19324,16 +19327,16 @@
       <c r="C260" s="15"/>
       <c r="D260" s="16"/>
       <c r="E260" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F260" s="17"/>
       <c r="G260" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
       <c r="J260" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19344,16 +19347,16 @@
       <c r="C261" s="15"/>
       <c r="D261" s="16"/>
       <c r="E261" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F261" s="17"/>
       <c r="G261" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
       <c r="J261" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19364,16 +19367,16 @@
       <c r="C262" s="15"/>
       <c r="D262" s="16"/>
       <c r="E262" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F262" s="17"/>
       <c r="G262" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
       <c r="J262" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19384,16 +19387,16 @@
       <c r="C263" s="15"/>
       <c r="D263" s="16"/>
       <c r="E263" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F263" s="17"/>
       <c r="G263" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
       <c r="J263" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19404,16 +19407,16 @@
       <c r="C264" s="15"/>
       <c r="D264" s="16"/>
       <c r="E264" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F264" s="17"/>
       <c r="G264" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H264" s="17"/>
       <c r="I264" s="17"/>
       <c r="J264" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19424,16 +19427,16 @@
       <c r="C265" s="15"/>
       <c r="D265" s="16"/>
       <c r="E265" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F265" s="17"/>
       <c r="G265" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H265" s="17"/>
       <c r="I265" s="17"/>
       <c r="J265" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19444,16 +19447,16 @@
       <c r="C266" s="15"/>
       <c r="D266" s="16"/>
       <c r="E266" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F266" s="17"/>
       <c r="G266" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H266" s="17"/>
       <c r="I266" s="17"/>
       <c r="J266" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19464,16 +19467,16 @@
       <c r="C267" s="15"/>
       <c r="D267" s="16"/>
       <c r="E267" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F267" s="17"/>
       <c r="G267" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H267" s="17"/>
       <c r="I267" s="17"/>
       <c r="J267" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19484,16 +19487,16 @@
       <c r="C268" s="15"/>
       <c r="D268" s="16"/>
       <c r="E268" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F268" s="17"/>
       <c r="G268" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H268" s="17"/>
       <c r="I268" s="17"/>
       <c r="J268" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19504,16 +19507,16 @@
       <c r="C269" s="15"/>
       <c r="D269" s="16"/>
       <c r="E269" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F269" s="17"/>
       <c r="G269" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H269" s="17"/>
       <c r="I269" s="17"/>
       <c r="J269" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19524,16 +19527,16 @@
       <c r="C270" s="15"/>
       <c r="D270" s="16"/>
       <c r="E270" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F270" s="17"/>
       <c r="G270" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="17"/>
       <c r="J270" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19544,16 +19547,16 @@
       <c r="C271" s="15"/>
       <c r="D271" s="16"/>
       <c r="E271" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F271" s="17"/>
       <c r="G271" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="17"/>
       <c r="J271" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19564,16 +19567,16 @@
       <c r="C272" s="15"/>
       <c r="D272" s="16"/>
       <c r="E272" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F272" s="17"/>
       <c r="G272" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="17"/>
       <c r="J272" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19584,16 +19587,16 @@
       <c r="C273" s="15"/>
       <c r="D273" s="16"/>
       <c r="E273" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F273" s="17"/>
       <c r="G273" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="17"/>
       <c r="J273" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19604,16 +19607,16 @@
       <c r="C274" s="15"/>
       <c r="D274" s="16"/>
       <c r="E274" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F274" s="17"/>
       <c r="G274" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
       <c r="J274" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19624,16 +19627,16 @@
       <c r="C275" s="15"/>
       <c r="D275" s="16"/>
       <c r="E275" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F275" s="17"/>
       <c r="G275" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="17"/>
       <c r="J275" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19644,16 +19647,16 @@
       <c r="C276" s="15"/>
       <c r="D276" s="16"/>
       <c r="E276" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F276" s="17"/>
       <c r="G276" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
       <c r="J276" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19664,16 +19667,16 @@
       <c r="C277" s="15"/>
       <c r="D277" s="16"/>
       <c r="E277" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F277" s="17"/>
       <c r="G277" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H277" s="17"/>
       <c r="I277" s="17"/>
       <c r="J277" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19684,16 +19687,16 @@
       <c r="C278" s="15"/>
       <c r="D278" s="16"/>
       <c r="E278" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F278" s="17"/>
       <c r="G278" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H278" s="17"/>
       <c r="I278" s="17"/>
       <c r="J278" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19704,16 +19707,16 @@
       <c r="C279" s="15"/>
       <c r="D279" s="16"/>
       <c r="E279" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F279" s="17"/>
       <c r="G279" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H279" s="17"/>
       <c r="I279" s="17"/>
       <c r="J279" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19724,16 +19727,16 @@
       <c r="C280" s="15"/>
       <c r="D280" s="16"/>
       <c r="E280" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F280" s="17"/>
       <c r="G280" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H280" s="17"/>
       <c r="I280" s="17"/>
       <c r="J280" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19744,16 +19747,16 @@
       <c r="C281" s="15"/>
       <c r="D281" s="16"/>
       <c r="E281" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F281" s="17"/>
       <c r="G281" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H281" s="17"/>
       <c r="I281" s="17"/>
       <c r="J281" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19764,16 +19767,16 @@
       <c r="C282" s="15"/>
       <c r="D282" s="16"/>
       <c r="E282" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F282" s="17"/>
       <c r="G282" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H282" s="17"/>
       <c r="I282" s="17"/>
       <c r="J282" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19784,16 +19787,16 @@
       <c r="C283" s="15"/>
       <c r="D283" s="16"/>
       <c r="E283" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F283" s="17"/>
       <c r="G283" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H283" s="17"/>
       <c r="I283" s="17"/>
       <c r="J283" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19804,16 +19807,16 @@
       <c r="C284" s="15"/>
       <c r="D284" s="16"/>
       <c r="E284" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F284" s="17"/>
       <c r="G284" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H284" s="17"/>
       <c r="I284" s="17"/>
       <c r="J284" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19824,16 +19827,16 @@
       <c r="C285" s="15"/>
       <c r="D285" s="16"/>
       <c r="E285" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F285" s="17"/>
       <c r="G285" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H285" s="17"/>
       <c r="I285" s="17"/>
       <c r="J285" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19844,16 +19847,16 @@
       <c r="C286" s="15"/>
       <c r="D286" s="16"/>
       <c r="E286" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F286" s="17"/>
       <c r="G286" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H286" s="17"/>
       <c r="I286" s="17"/>
       <c r="J286" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19864,16 +19867,16 @@
       <c r="C287" s="15"/>
       <c r="D287" s="16"/>
       <c r="E287" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F287" s="17"/>
       <c r="G287" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H287" s="17"/>
       <c r="I287" s="17"/>
       <c r="J287" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19884,16 +19887,16 @@
       <c r="C288" s="15"/>
       <c r="D288" s="16"/>
       <c r="E288" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F288" s="17"/>
       <c r="G288" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
       <c r="J288" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19904,16 +19907,16 @@
       <c r="C289" s="15"/>
       <c r="D289" s="16"/>
       <c r="E289" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F289" s="17"/>
       <c r="G289" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H289" s="17"/>
       <c r="I289" s="17"/>
       <c r="J289" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19924,16 +19927,16 @@
       <c r="C290" s="15"/>
       <c r="D290" s="16"/>
       <c r="E290" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F290" s="17"/>
       <c r="G290" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
       <c r="J290" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19944,16 +19947,16 @@
       <c r="C291" s="15"/>
       <c r="D291" s="16"/>
       <c r="E291" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F291" s="17"/>
       <c r="G291" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
       <c r="J291" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19964,16 +19967,16 @@
       <c r="C292" s="15"/>
       <c r="D292" s="16"/>
       <c r="E292" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F292" s="17"/>
       <c r="G292" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
       <c r="J292" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -19984,16 +19987,16 @@
       <c r="C293" s="15"/>
       <c r="D293" s="16"/>
       <c r="E293" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F293" s="17"/>
       <c r="G293" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
       <c r="J293" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20004,16 +20007,16 @@
       <c r="C294" s="15"/>
       <c r="D294" s="16"/>
       <c r="E294" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F294" s="17"/>
       <c r="G294" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
       <c r="J294" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20024,16 +20027,16 @@
       <c r="C295" s="15"/>
       <c r="D295" s="16"/>
       <c r="E295" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F295" s="17"/>
       <c r="G295" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
       <c r="J295" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20044,16 +20047,16 @@
       <c r="C296" s="15"/>
       <c r="D296" s="16"/>
       <c r="E296" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F296" s="17"/>
       <c r="G296" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
       <c r="J296" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20064,16 +20067,16 @@
       <c r="C297" s="15"/>
       <c r="D297" s="16"/>
       <c r="E297" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F297" s="17"/>
       <c r="G297" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="17"/>
       <c r="J297" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20084,16 +20087,16 @@
       <c r="C298" s="15"/>
       <c r="D298" s="16"/>
       <c r="E298" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F298" s="17"/>
       <c r="G298" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
       <c r="J298" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20104,16 +20107,16 @@
       <c r="C299" s="15"/>
       <c r="D299" s="16"/>
       <c r="E299" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F299" s="17"/>
       <c r="G299" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H299" s="17"/>
       <c r="I299" s="17"/>
       <c r="J299" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20124,16 +20127,16 @@
       <c r="C300" s="15"/>
       <c r="D300" s="16"/>
       <c r="E300" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F300" s="17"/>
       <c r="G300" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="17"/>
       <c r="J300" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20144,16 +20147,16 @@
       <c r="C301" s="15"/>
       <c r="D301" s="16"/>
       <c r="E301" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F301" s="17"/>
       <c r="G301" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="17"/>
       <c r="J301" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="302" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20164,16 +20167,16 @@
       <c r="C302" s="15"/>
       <c r="D302" s="16"/>
       <c r="E302" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F302" s="17"/>
       <c r="G302" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="17"/>
       <c r="J302" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20184,16 +20187,16 @@
       <c r="C303" s="15"/>
       <c r="D303" s="16"/>
       <c r="E303" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F303" s="17"/>
       <c r="G303" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="17"/>
       <c r="J303" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20204,16 +20207,16 @@
       <c r="C304" s="15"/>
       <c r="D304" s="16"/>
       <c r="E304" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F304" s="17"/>
       <c r="G304" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="17"/>
       <c r="J304" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20224,16 +20227,16 @@
       <c r="C305" s="15"/>
       <c r="D305" s="16"/>
       <c r="E305" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F305" s="17"/>
       <c r="G305" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="17"/>
       <c r="J305" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -20244,16 +20247,16 @@
       <c r="C306" s="15"/>
       <c r="D306" s="16"/>
       <c r="E306" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F306" s="17"/>
       <c r="G306" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H306" s="17"/>
       <c r="I306" s="17"/>
       <c r="J306" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20385,8 +20388,9 @@
     <row r="433" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="434" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="A6HOA5NLq/PhWKo5ay7L8DgN5T5+gAJzgIqnd4v9hrjAigWuyzG3KX3COnn0xZTtJQljbZB2oR7Umpl8YNU65Q==" saltValue="tn11nCyvzfLfQhC/wpZ3pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="B5:B6"/>

--- a/storage/template/report stock opname.xlsx
+++ b/storage/template/report stock opname.xlsx
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>PT. AISIN INDONESIA AUTOMOTIVE</t>
   </si>
@@ -567,12 +567,6 @@
   </si>
   <si>
     <t>(PCS)</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
-    <t>Pcs</t>
   </si>
 </sst>
 </file>
@@ -877,6 +871,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -902,9 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11265,12 +11259,12 @@
       <sheetName val="Data"/>
       <sheetName val="CALCULATION"/>
       <sheetName val="Agustus 2007"/>
+      <sheetName val="Sum"/>
       <sheetName val="karylengkap"/>
       <sheetName val="Report7"/>
       <sheetName val="RADIO CONTROLS"/>
       <sheetName val="ANGGARAN"/>
       <sheetName val="TIRE DIVISION"/>
-      <sheetName val="Sum"/>
       <sheetName val="Data Tahunan"/>
       <sheetName val="TIRE2001"/>
       <sheetName val="pola prod"/>
@@ -13516,6 +13510,7 @@
       <sheetName val="Sum"/>
       <sheetName val="ocean voyage"/>
       <sheetName val="??????"/>
+      <sheetName val="FC"/>
       <sheetName val="Tunas Motor"/>
       <sheetName val="Bali Sena Motor"/>
       <sheetName val="Prima Jaya Motor"/>
@@ -13580,7 +13575,6 @@
       <sheetName val="Q (in progress)"/>
       <sheetName val="Informasi Dept"/>
       <sheetName val="Sheet1"/>
-      <sheetName val="FC"/>
       <sheetName val="order"/>
       <sheetName val="Ｋｓｓ耐久車走行実績詳細 "/>
       <sheetName val="Data Tahunan"/>
@@ -13668,7 +13662,7 @@
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22"/>
+      <sheetData sheetId="22" refreshError="1"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
@@ -13717,12 +13711,12 @@
       <sheetData sheetId="68"/>
       <sheetData sheetId="69"/>
       <sheetData sheetId="70"/>
-      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="71"/>
       <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73"/>
+      <sheetData sheetId="73" refreshError="1"/>
       <sheetData sheetId="74"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76" refreshError="1"/>
       <sheetData sheetId="77"/>
       <sheetData sheetId="78"/>
       <sheetData sheetId="79"/>
@@ -13731,7 +13725,7 @@
       <sheetData sheetId="82"/>
       <sheetData sheetId="83"/>
       <sheetData sheetId="84"/>
-      <sheetData sheetId="85" refreshError="1"/>
+      <sheetData sheetId="85"/>
       <sheetData sheetId="86" refreshError="1"/>
       <sheetData sheetId="87" refreshError="1"/>
       <sheetData sheetId="88" refreshError="1"/>
@@ -14152,7 +14146,7 @@
   <dimension ref="B1:J434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="A1:XFD1048576"/>
+      <selection activeCell="J7" sqref="J7:J306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14206,8 +14200,8 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -14217,25 +14211,25 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -14246,13 +14240,13 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="13" t="s">
         <v>14</v>
       </c>
@@ -14266,18 +14260,12 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
@@ -14286,18 +14274,12 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
@@ -14306,18 +14288,12 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
@@ -14326,18 +14302,12 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
@@ -14346,18 +14316,12 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
@@ -14366,18 +14330,12 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
@@ -14386,18 +14344,12 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
@@ -14406,18 +14358,12 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15">
@@ -14426,18 +14372,12 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15">
@@ -14446,18 +14386,12 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15">
@@ -14466,18 +14400,12 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15">
@@ -14486,18 +14414,12 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
@@ -14506,18 +14428,12 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
@@ -14526,18 +14442,12 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
@@ -14546,18 +14456,12 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15">
@@ -14566,18 +14470,12 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E22" s="15"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G22" s="15"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
@@ -14586,18 +14484,12 @@
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E23" s="15"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G23" s="15"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
@@ -14606,18 +14498,12 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E24" s="15"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G24" s="15"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
@@ -14626,18 +14512,12 @@
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15">
@@ -14646,18 +14526,12 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E26" s="15"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
@@ -14666,18 +14540,12 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15">
@@ -14686,18 +14554,12 @@
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E28" s="15"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
@@ -14706,18 +14568,12 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E29" s="15"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G29" s="15"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15">
@@ -14726,18 +14582,12 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E30" s="15"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
@@ -14746,18 +14596,12 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E31" s="15"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G31" s="15"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15">
@@ -14766,18 +14610,12 @@
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G32" s="15"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
@@ -14786,18 +14624,12 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E33" s="15"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="15">
@@ -14806,18 +14638,12 @@
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E34" s="15"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G34" s="15"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15">
@@ -14826,18 +14652,12 @@
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E35" s="15"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G35" s="15"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="15">
@@ -14846,18 +14666,12 @@
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E36" s="15"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G36" s="15"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15">
@@ -14866,18 +14680,12 @@
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E37" s="15"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="15">
@@ -14886,18 +14694,12 @@
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E38" s="15"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G38" s="15"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15">
@@ -14906,18 +14708,12 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E39" s="15"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G39" s="15"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="15">
@@ -14926,18 +14722,12 @@
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E40" s="15"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G40" s="15"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="15">
@@ -14946,18 +14736,12 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E41" s="15"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G41" s="15"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="15">
@@ -14966,18 +14750,12 @@
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E42" s="15"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G42" s="15"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="15">
@@ -14986,18 +14764,12 @@
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E43" s="15"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G43" s="15"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="15">
@@ -15006,18 +14778,12 @@
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E44" s="15"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G44" s="15"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="15">
@@ -15026,18 +14792,12 @@
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
-      <c r="E45" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E45" s="15"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G45" s="15"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="15">
@@ -15046,18 +14806,12 @@
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G46" s="15"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15">
@@ -15066,18 +14820,12 @@
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E47" s="15"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G47" s="15"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="15">
@@ -15086,18 +14834,12 @@
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E48" s="15"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G48" s="15"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="15">
@@ -15106,18 +14848,12 @@
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E49" s="15"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G49" s="15"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="15">
@@ -15126,18 +14862,12 @@
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E50" s="15"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G50" s="15"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="15">
@@ -15146,18 +14876,12 @@
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E51" s="15"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G51" s="15"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="15">
@@ -15166,18 +14890,12 @@
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E52" s="15"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G52" s="15"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J52" s="15"/>
     </row>
     <row r="53" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="15">
@@ -15186,18 +14904,12 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E53" s="15"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G53" s="15"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J53" s="15"/>
     </row>
     <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="15">
@@ -15206,18 +14918,12 @@
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E54" s="15"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G54" s="15"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="15">
@@ -15226,18 +14932,12 @@
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E55" s="15"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G55" s="15"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="15">
@@ -15246,18 +14946,12 @@
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E56" s="15"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G56" s="15"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="15">
@@ -15266,18 +14960,12 @@
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
-      <c r="E57" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G57" s="15"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="15">
@@ -15286,18 +14974,12 @@
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E58" s="15"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G58" s="15"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="15">
@@ -15306,18 +14988,12 @@
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
-      <c r="E59" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E59" s="15"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G59" s="15"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J59" s="15"/>
     </row>
     <row r="60" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="15">
@@ -15326,18 +15002,12 @@
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E60" s="15"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G60" s="15"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
-      <c r="J60" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="15">
@@ -15346,18 +15016,12 @@
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
-      <c r="E61" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E61" s="15"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G61" s="15"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J61" s="15"/>
     </row>
     <row r="62" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="15">
@@ -15366,18 +15030,12 @@
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
-      <c r="E62" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E62" s="15"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G62" s="15"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
-      <c r="J62" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J62" s="15"/>
     </row>
     <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="15">
@@ -15386,18 +15044,12 @@
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
-      <c r="E63" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E63" s="15"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G63" s="15"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J63" s="15"/>
     </row>
     <row r="64" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="15">
@@ -15406,18 +15058,12 @@
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E64" s="15"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G64" s="15"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
-      <c r="J64" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J64" s="15"/>
     </row>
     <row r="65" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="15">
@@ -15426,18 +15072,12 @@
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
-      <c r="E65" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E65" s="15"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G65" s="15"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
-      <c r="J65" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J65" s="15"/>
     </row>
     <row r="66" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="15">
@@ -15446,18 +15086,12 @@
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E66" s="15"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G66" s="15"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
-      <c r="J66" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="15">
@@ -15466,18 +15100,12 @@
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
-      <c r="E67" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E67" s="15"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G67" s="15"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J67" s="15"/>
     </row>
     <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="15">
@@ -15486,18 +15114,12 @@
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E68" s="15"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G68" s="15"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
-      <c r="J68" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J68" s="15"/>
     </row>
     <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="15">
@@ -15506,18 +15128,12 @@
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E69" s="15"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G69" s="15"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J69" s="15"/>
     </row>
     <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="15">
@@ -15526,18 +15142,12 @@
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E70" s="15"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G70" s="15"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J70" s="15"/>
     </row>
     <row r="71" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="15">
@@ -15546,18 +15156,12 @@
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
-      <c r="E71" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E71" s="15"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G71" s="15"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="15">
@@ -15566,18 +15170,12 @@
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
-      <c r="E72" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E72" s="15"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G72" s="15"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
-      <c r="J72" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J72" s="15"/>
     </row>
     <row r="73" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="15">
@@ -15586,18 +15184,12 @@
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
-      <c r="E73" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E73" s="15"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G73" s="15"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="15">
@@ -15606,18 +15198,12 @@
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
-      <c r="E74" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E74" s="15"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G74" s="15"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
-      <c r="J74" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J74" s="15"/>
     </row>
     <row r="75" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="15">
@@ -15626,18 +15212,12 @@
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
-      <c r="E75" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E75" s="15"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G75" s="15"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
-      <c r="J75" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J75" s="15"/>
     </row>
     <row r="76" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="15">
@@ -15646,18 +15226,12 @@
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
-      <c r="E76" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E76" s="15"/>
       <c r="F76" s="17"/>
-      <c r="G76" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G76" s="15"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
-      <c r="J76" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J76" s="15"/>
     </row>
     <row r="77" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="15">
@@ -15666,18 +15240,12 @@
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="16"/>
-      <c r="E77" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E77" s="15"/>
       <c r="F77" s="17"/>
-      <c r="G77" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G77" s="15"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
-      <c r="J77" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J77" s="15"/>
     </row>
     <row r="78" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="15">
@@ -15686,18 +15254,12 @@
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E78" s="15"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G78" s="15"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
-      <c r="J78" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J78" s="15"/>
     </row>
     <row r="79" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="15">
@@ -15706,18 +15268,12 @@
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
-      <c r="E79" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E79" s="15"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G79" s="15"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
-      <c r="J79" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="15">
@@ -15726,18 +15282,12 @@
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
-      <c r="E80" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E80" s="15"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G80" s="15"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
-      <c r="J80" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J80" s="15"/>
     </row>
     <row r="81" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="15">
@@ -15746,18 +15296,12 @@
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="16"/>
-      <c r="E81" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E81" s="15"/>
       <c r="F81" s="17"/>
-      <c r="G81" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G81" s="15"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
-      <c r="J81" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J81" s="15"/>
     </row>
     <row r="82" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="15">
@@ -15766,18 +15310,12 @@
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
-      <c r="E82" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E82" s="15"/>
       <c r="F82" s="17"/>
-      <c r="G82" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G82" s="15"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
-      <c r="J82" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J82" s="15"/>
     </row>
     <row r="83" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="15">
@@ -15786,18 +15324,12 @@
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="16"/>
-      <c r="E83" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E83" s="15"/>
       <c r="F83" s="17"/>
-      <c r="G83" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G83" s="15"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
-      <c r="J83" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J83" s="15"/>
     </row>
     <row r="84" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="15">
@@ -15806,18 +15338,12 @@
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E84" s="15"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G84" s="15"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
-      <c r="J84" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J84" s="15"/>
     </row>
     <row r="85" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="15">
@@ -15826,18 +15352,12 @@
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="16"/>
-      <c r="E85" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E85" s="15"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G85" s="15"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
-      <c r="J85" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J85" s="15"/>
     </row>
     <row r="86" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="15">
@@ -15846,18 +15366,12 @@
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="16"/>
-      <c r="E86" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E86" s="15"/>
       <c r="F86" s="17"/>
-      <c r="G86" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G86" s="15"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
-      <c r="J86" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J86" s="15"/>
     </row>
     <row r="87" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="15">
@@ -15866,18 +15380,12 @@
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="16"/>
-      <c r="E87" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E87" s="15"/>
       <c r="F87" s="17"/>
-      <c r="G87" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G87" s="15"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
-      <c r="J87" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="15">
@@ -15886,18 +15394,12 @@
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="16"/>
-      <c r="E88" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E88" s="15"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G88" s="15"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
-      <c r="J88" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J88" s="15"/>
     </row>
     <row r="89" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="15">
@@ -15906,18 +15408,12 @@
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="16"/>
-      <c r="E89" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E89" s="15"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G89" s="15"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
-      <c r="J89" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J89" s="15"/>
     </row>
     <row r="90" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="15">
@@ -15926,18 +15422,12 @@
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="16"/>
-      <c r="E90" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E90" s="15"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G90" s="15"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
-      <c r="J90" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="15">
@@ -15946,18 +15436,12 @@
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="16"/>
-      <c r="E91" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E91" s="15"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G91" s="15"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
-      <c r="J91" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J91" s="15"/>
     </row>
     <row r="92" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="15">
@@ -15966,18 +15450,12 @@
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="16"/>
-      <c r="E92" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E92" s="15"/>
       <c r="F92" s="17"/>
-      <c r="G92" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G92" s="15"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
-      <c r="J92" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J92" s="15"/>
     </row>
     <row r="93" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="15">
@@ -15986,18 +15464,12 @@
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="16"/>
-      <c r="E93" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E93" s="15"/>
       <c r="F93" s="17"/>
-      <c r="G93" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G93" s="15"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-      <c r="J93" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J93" s="15"/>
     </row>
     <row r="94" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="15">
@@ -16006,18 +15478,12 @@
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="16"/>
-      <c r="E94" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E94" s="15"/>
       <c r="F94" s="17"/>
-      <c r="G94" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G94" s="15"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
-      <c r="J94" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J94" s="15"/>
     </row>
     <row r="95" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="15">
@@ -16026,18 +15492,12 @@
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="16"/>
-      <c r="E95" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E95" s="15"/>
       <c r="F95" s="17"/>
-      <c r="G95" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G95" s="15"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
-      <c r="J95" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J95" s="15"/>
     </row>
     <row r="96" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="15">
@@ -16046,18 +15506,12 @@
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="16"/>
-      <c r="E96" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E96" s="15"/>
       <c r="F96" s="17"/>
-      <c r="G96" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G96" s="15"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
-      <c r="J96" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J96" s="15"/>
     </row>
     <row r="97" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="15">
@@ -16066,18 +15520,12 @@
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="16"/>
-      <c r="E97" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E97" s="15"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G97" s="15"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
-      <c r="J97" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J97" s="15"/>
     </row>
     <row r="98" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="15">
@@ -16086,18 +15534,12 @@
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="16"/>
-      <c r="E98" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E98" s="15"/>
       <c r="F98" s="17"/>
-      <c r="G98" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G98" s="15"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
-      <c r="J98" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="15">
@@ -16106,18 +15548,12 @@
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="16"/>
-      <c r="E99" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E99" s="15"/>
       <c r="F99" s="17"/>
-      <c r="G99" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G99" s="15"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
-      <c r="J99" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J99" s="15"/>
     </row>
     <row r="100" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="15">
@@ -16126,18 +15562,12 @@
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="16"/>
-      <c r="E100" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E100" s="15"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G100" s="15"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
-      <c r="J100" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="15">
@@ -16146,18 +15576,12 @@
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="16"/>
-      <c r="E101" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E101" s="15"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G101" s="15"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
-      <c r="J101" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J101" s="15"/>
     </row>
     <row r="102" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="15">
@@ -16166,18 +15590,12 @@
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="16"/>
-      <c r="E102" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E102" s="15"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G102" s="15"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
-      <c r="J102" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="15">
@@ -16186,18 +15604,12 @@
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="16"/>
-      <c r="E103" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E103" s="15"/>
       <c r="F103" s="17"/>
-      <c r="G103" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G103" s="15"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J103" s="15"/>
     </row>
     <row r="104" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="15">
@@ -16206,18 +15618,12 @@
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="16"/>
-      <c r="E104" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E104" s="15"/>
       <c r="F104" s="17"/>
-      <c r="G104" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G104" s="15"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
-      <c r="J104" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J104" s="15"/>
     </row>
     <row r="105" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="15">
@@ -16226,18 +15632,12 @@
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="16"/>
-      <c r="E105" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E105" s="15"/>
       <c r="F105" s="17"/>
-      <c r="G105" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G105" s="15"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J105" s="15"/>
     </row>
     <row r="106" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="15">
@@ -16246,18 +15646,12 @@
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="16"/>
-      <c r="E106" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E106" s="15"/>
       <c r="F106" s="17"/>
-      <c r="G106" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G106" s="15"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J106" s="15"/>
     </row>
     <row r="107" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="15">
@@ -16266,18 +15660,12 @@
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="16"/>
-      <c r="E107" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E107" s="15"/>
       <c r="F107" s="17"/>
-      <c r="G107" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G107" s="15"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="15">
@@ -16286,18 +15674,12 @@
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="16"/>
-      <c r="E108" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E108" s="15"/>
       <c r="F108" s="17"/>
-      <c r="G108" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G108" s="15"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="15">
@@ -16306,18 +15688,12 @@
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="16"/>
-      <c r="E109" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E109" s="15"/>
       <c r="F109" s="17"/>
-      <c r="G109" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G109" s="15"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J109" s="15"/>
     </row>
     <row r="110" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="15">
@@ -16326,18 +15702,12 @@
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="16"/>
-      <c r="E110" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E110" s="15"/>
       <c r="F110" s="17"/>
-      <c r="G110" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G110" s="15"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J110" s="15"/>
     </row>
     <row r="111" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="15">
@@ -16346,18 +15716,12 @@
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="16"/>
-      <c r="E111" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E111" s="15"/>
       <c r="F111" s="17"/>
-      <c r="G111" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G111" s="15"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J111" s="15"/>
     </row>
     <row r="112" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="15">
@@ -16366,18 +15730,12 @@
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="16"/>
-      <c r="E112" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E112" s="15"/>
       <c r="F112" s="17"/>
-      <c r="G112" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G112" s="15"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J112" s="15"/>
     </row>
     <row r="113" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="15">
@@ -16386,18 +15744,12 @@
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="16"/>
-      <c r="E113" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E113" s="15"/>
       <c r="F113" s="17"/>
-      <c r="G113" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G113" s="15"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
-      <c r="J113" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J113" s="15"/>
     </row>
     <row r="114" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="15">
@@ -16406,18 +15758,12 @@
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="16"/>
-      <c r="E114" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E114" s="15"/>
       <c r="F114" s="17"/>
-      <c r="G114" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G114" s="15"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
-      <c r="J114" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J114" s="15"/>
     </row>
     <row r="115" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="15">
@@ -16426,18 +15772,12 @@
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="16"/>
-      <c r="E115" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E115" s="15"/>
       <c r="F115" s="17"/>
-      <c r="G115" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G115" s="15"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
-      <c r="J115" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J115" s="15"/>
     </row>
     <row r="116" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="15">
@@ -16446,18 +15786,12 @@
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="16"/>
-      <c r="E116" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E116" s="15"/>
       <c r="F116" s="17"/>
-      <c r="G116" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G116" s="15"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
-      <c r="J116" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J116" s="15"/>
     </row>
     <row r="117" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="15">
@@ -16466,18 +15800,12 @@
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="16"/>
-      <c r="E117" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E117" s="15"/>
       <c r="F117" s="17"/>
-      <c r="G117" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G117" s="15"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
-      <c r="J117" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J117" s="15"/>
     </row>
     <row r="118" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="15">
@@ -16486,18 +15814,12 @@
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="16"/>
-      <c r="E118" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E118" s="15"/>
       <c r="F118" s="17"/>
-      <c r="G118" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G118" s="15"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
-      <c r="J118" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J118" s="15"/>
     </row>
     <row r="119" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="15">
@@ -16506,18 +15828,12 @@
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="16"/>
-      <c r="E119" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E119" s="15"/>
       <c r="F119" s="17"/>
-      <c r="G119" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G119" s="15"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
-      <c r="J119" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J119" s="15"/>
     </row>
     <row r="120" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="15">
@@ -16526,18 +15842,12 @@
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="16"/>
-      <c r="E120" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E120" s="15"/>
       <c r="F120" s="17"/>
-      <c r="G120" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G120" s="15"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
-      <c r="J120" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J120" s="15"/>
     </row>
     <row r="121" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="15">
@@ -16546,18 +15856,12 @@
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="16"/>
-      <c r="E121" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E121" s="15"/>
       <c r="F121" s="17"/>
-      <c r="G121" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G121" s="15"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
-      <c r="J121" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J121" s="15"/>
     </row>
     <row r="122" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="15">
@@ -16566,18 +15870,12 @@
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="16"/>
-      <c r="E122" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E122" s="15"/>
       <c r="F122" s="17"/>
-      <c r="G122" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G122" s="15"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
-      <c r="J122" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J122" s="15"/>
     </row>
     <row r="123" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="15">
@@ -16586,18 +15884,12 @@
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="16"/>
-      <c r="E123" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E123" s="15"/>
       <c r="F123" s="17"/>
-      <c r="G123" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G123" s="15"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
-      <c r="J123" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J123" s="15"/>
     </row>
     <row r="124" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="15">
@@ -16606,18 +15898,12 @@
       </c>
       <c r="C124" s="15"/>
       <c r="D124" s="16"/>
-      <c r="E124" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E124" s="15"/>
       <c r="F124" s="17"/>
-      <c r="G124" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G124" s="15"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
-      <c r="J124" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J124" s="15"/>
     </row>
     <row r="125" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="15">
@@ -16626,18 +15912,12 @@
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="16"/>
-      <c r="E125" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E125" s="15"/>
       <c r="F125" s="17"/>
-      <c r="G125" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G125" s="15"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J125" s="15"/>
     </row>
     <row r="126" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="15">
@@ -16646,18 +15926,12 @@
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="16"/>
-      <c r="E126" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E126" s="15"/>
       <c r="F126" s="17"/>
-      <c r="G126" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G126" s="15"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
-      <c r="J126" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J126" s="15"/>
     </row>
     <row r="127" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="15">
@@ -16666,18 +15940,12 @@
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="16"/>
-      <c r="E127" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E127" s="15"/>
       <c r="F127" s="17"/>
-      <c r="G127" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G127" s="15"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
-      <c r="J127" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J127" s="15"/>
     </row>
     <row r="128" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="15">
@@ -16686,18 +15954,12 @@
       </c>
       <c r="C128" s="15"/>
       <c r="D128" s="16"/>
-      <c r="E128" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E128" s="15"/>
       <c r="F128" s="17"/>
-      <c r="G128" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G128" s="15"/>
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
-      <c r="J128" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J128" s="15"/>
     </row>
     <row r="129" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="15">
@@ -16706,18 +15968,12 @@
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="16"/>
-      <c r="E129" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E129" s="15"/>
       <c r="F129" s="17"/>
-      <c r="G129" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G129" s="15"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
-      <c r="J129" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J129" s="15"/>
     </row>
     <row r="130" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="15">
@@ -16726,18 +15982,12 @@
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="16"/>
-      <c r="E130" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E130" s="15"/>
       <c r="F130" s="17"/>
-      <c r="G130" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G130" s="15"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
-      <c r="J130" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J130" s="15"/>
     </row>
     <row r="131" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="15">
@@ -16746,18 +15996,12 @@
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="16"/>
-      <c r="E131" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E131" s="15"/>
       <c r="F131" s="17"/>
-      <c r="G131" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G131" s="15"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
-      <c r="J131" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J131" s="15"/>
     </row>
     <row r="132" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="15">
@@ -16766,18 +16010,12 @@
       </c>
       <c r="C132" s="15"/>
       <c r="D132" s="16"/>
-      <c r="E132" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E132" s="15"/>
       <c r="F132" s="17"/>
-      <c r="G132" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G132" s="15"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
-      <c r="J132" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J132" s="15"/>
     </row>
     <row r="133" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="15">
@@ -16786,18 +16024,12 @@
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="16"/>
-      <c r="E133" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E133" s="15"/>
       <c r="F133" s="17"/>
-      <c r="G133" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G133" s="15"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
-      <c r="J133" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J133" s="15"/>
     </row>
     <row r="134" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="15">
@@ -16806,18 +16038,12 @@
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="16"/>
-      <c r="E134" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E134" s="15"/>
       <c r="F134" s="17"/>
-      <c r="G134" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G134" s="15"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
-      <c r="J134" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J134" s="15"/>
     </row>
     <row r="135" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="15">
@@ -16826,18 +16052,12 @@
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="16"/>
-      <c r="E135" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E135" s="15"/>
       <c r="F135" s="17"/>
-      <c r="G135" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G135" s="15"/>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
-      <c r="J135" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J135" s="15"/>
     </row>
     <row r="136" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="15">
@@ -16846,18 +16066,12 @@
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="16"/>
-      <c r="E136" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E136" s="15"/>
       <c r="F136" s="17"/>
-      <c r="G136" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G136" s="15"/>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
-      <c r="J136" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J136" s="15"/>
     </row>
     <row r="137" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="15">
@@ -16866,18 +16080,12 @@
       </c>
       <c r="C137" s="15"/>
       <c r="D137" s="16"/>
-      <c r="E137" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E137" s="15"/>
       <c r="F137" s="17"/>
-      <c r="G137" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G137" s="15"/>
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
-      <c r="J137" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J137" s="15"/>
     </row>
     <row r="138" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="15">
@@ -16886,18 +16094,12 @@
       </c>
       <c r="C138" s="15"/>
       <c r="D138" s="16"/>
-      <c r="E138" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E138" s="15"/>
       <c r="F138" s="17"/>
-      <c r="G138" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G138" s="15"/>
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
-      <c r="J138" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J138" s="15"/>
     </row>
     <row r="139" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="15">
@@ -16906,18 +16108,12 @@
       </c>
       <c r="C139" s="15"/>
       <c r="D139" s="16"/>
-      <c r="E139" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E139" s="15"/>
       <c r="F139" s="17"/>
-      <c r="G139" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G139" s="15"/>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
-      <c r="J139" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J139" s="15"/>
     </row>
     <row r="140" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="15">
@@ -16926,18 +16122,12 @@
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="16"/>
-      <c r="E140" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E140" s="15"/>
       <c r="F140" s="17"/>
-      <c r="G140" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G140" s="15"/>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
-      <c r="J140" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J140" s="15"/>
     </row>
     <row r="141" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="15">
@@ -16946,18 +16136,12 @@
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="16"/>
-      <c r="E141" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E141" s="15"/>
       <c r="F141" s="17"/>
-      <c r="G141" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G141" s="15"/>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J141" s="15"/>
     </row>
     <row r="142" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="15">
@@ -16966,18 +16150,12 @@
       </c>
       <c r="C142" s="15"/>
       <c r="D142" s="16"/>
-      <c r="E142" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E142" s="15"/>
       <c r="F142" s="17"/>
-      <c r="G142" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G142" s="15"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
-      <c r="J142" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J142" s="15"/>
     </row>
     <row r="143" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="15">
@@ -16986,18 +16164,12 @@
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="16"/>
-      <c r="E143" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E143" s="15"/>
       <c r="F143" s="17"/>
-      <c r="G143" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G143" s="15"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
-      <c r="J143" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J143" s="15"/>
     </row>
     <row r="144" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="15">
@@ -17006,18 +16178,12 @@
       </c>
       <c r="C144" s="15"/>
       <c r="D144" s="16"/>
-      <c r="E144" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E144" s="15"/>
       <c r="F144" s="17"/>
-      <c r="G144" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G144" s="15"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
-      <c r="J144" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J144" s="15"/>
     </row>
     <row r="145" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="15">
@@ -17026,18 +16192,12 @@
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="16"/>
-      <c r="E145" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E145" s="15"/>
       <c r="F145" s="17"/>
-      <c r="G145" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G145" s="15"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J145" s="15"/>
     </row>
     <row r="146" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="15">
@@ -17046,18 +16206,12 @@
       </c>
       <c r="C146" s="15"/>
       <c r="D146" s="16"/>
-      <c r="E146" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E146" s="15"/>
       <c r="F146" s="17"/>
-      <c r="G146" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G146" s="15"/>
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
-      <c r="J146" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J146" s="15"/>
     </row>
     <row r="147" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="15">
@@ -17066,18 +16220,12 @@
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="16"/>
-      <c r="E147" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E147" s="15"/>
       <c r="F147" s="17"/>
-      <c r="G147" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G147" s="15"/>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
-      <c r="J147" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J147" s="15"/>
     </row>
     <row r="148" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="15">
@@ -17086,18 +16234,12 @@
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="16"/>
-      <c r="E148" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E148" s="15"/>
       <c r="F148" s="17"/>
-      <c r="G148" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G148" s="15"/>
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
-      <c r="J148" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J148" s="15"/>
     </row>
     <row r="149" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="15">
@@ -17106,18 +16248,12 @@
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="16"/>
-      <c r="E149" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E149" s="15"/>
       <c r="F149" s="17"/>
-      <c r="G149" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G149" s="15"/>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J149" s="15"/>
     </row>
     <row r="150" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="15">
@@ -17126,18 +16262,12 @@
       </c>
       <c r="C150" s="15"/>
       <c r="D150" s="16"/>
-      <c r="E150" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E150" s="15"/>
       <c r="F150" s="17"/>
-      <c r="G150" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G150" s="15"/>
       <c r="H150" s="17"/>
       <c r="I150" s="17"/>
-      <c r="J150" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J150" s="15"/>
     </row>
     <row r="151" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="15">
@@ -17146,18 +16276,12 @@
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="16"/>
-      <c r="E151" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E151" s="15"/>
       <c r="F151" s="17"/>
-      <c r="G151" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G151" s="15"/>
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
-      <c r="J151" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J151" s="15"/>
     </row>
     <row r="152" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="15">
@@ -17166,18 +16290,12 @@
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="16"/>
-      <c r="E152" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E152" s="15"/>
       <c r="F152" s="17"/>
-      <c r="G152" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G152" s="15"/>
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
-      <c r="J152" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J152" s="15"/>
     </row>
     <row r="153" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="15">
@@ -17186,18 +16304,12 @@
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="16"/>
-      <c r="E153" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E153" s="15"/>
       <c r="F153" s="17"/>
-      <c r="G153" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G153" s="15"/>
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
-      <c r="J153" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J153" s="15"/>
     </row>
     <row r="154" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="15">
@@ -17206,18 +16318,12 @@
       </c>
       <c r="C154" s="15"/>
       <c r="D154" s="16"/>
-      <c r="E154" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E154" s="15"/>
       <c r="F154" s="17"/>
-      <c r="G154" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G154" s="15"/>
       <c r="H154" s="17"/>
       <c r="I154" s="17"/>
-      <c r="J154" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J154" s="15"/>
     </row>
     <row r="155" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="15">
@@ -17226,18 +16332,12 @@
       </c>
       <c r="C155" s="15"/>
       <c r="D155" s="16"/>
-      <c r="E155" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E155" s="15"/>
       <c r="F155" s="17"/>
-      <c r="G155" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G155" s="15"/>
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
-      <c r="J155" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J155" s="15"/>
     </row>
     <row r="156" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="15">
@@ -17246,18 +16346,12 @@
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="16"/>
-      <c r="E156" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E156" s="15"/>
       <c r="F156" s="17"/>
-      <c r="G156" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G156" s="15"/>
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
-      <c r="J156" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J156" s="15"/>
     </row>
     <row r="157" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="15">
@@ -17266,18 +16360,12 @@
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="16"/>
-      <c r="E157" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E157" s="15"/>
       <c r="F157" s="17"/>
-      <c r="G157" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G157" s="15"/>
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
-      <c r="J157" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J157" s="15"/>
     </row>
     <row r="158" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="15">
@@ -17286,18 +16374,12 @@
       </c>
       <c r="C158" s="15"/>
       <c r="D158" s="16"/>
-      <c r="E158" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E158" s="15"/>
       <c r="F158" s="17"/>
-      <c r="G158" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G158" s="15"/>
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
-      <c r="J158" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J158" s="15"/>
     </row>
     <row r="159" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="15">
@@ -17306,18 +16388,12 @@
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="16"/>
-      <c r="E159" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E159" s="15"/>
       <c r="F159" s="17"/>
-      <c r="G159" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G159" s="15"/>
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
-      <c r="J159" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J159" s="15"/>
     </row>
     <row r="160" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="15">
@@ -17326,18 +16402,12 @@
       </c>
       <c r="C160" s="15"/>
       <c r="D160" s="16"/>
-      <c r="E160" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E160" s="15"/>
       <c r="F160" s="17"/>
-      <c r="G160" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G160" s="15"/>
       <c r="H160" s="17"/>
       <c r="I160" s="17"/>
-      <c r="J160" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J160" s="15"/>
     </row>
     <row r="161" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="15">
@@ -17346,18 +16416,12 @@
       </c>
       <c r="C161" s="15"/>
       <c r="D161" s="16"/>
-      <c r="E161" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E161" s="15"/>
       <c r="F161" s="17"/>
-      <c r="G161" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G161" s="15"/>
       <c r="H161" s="17"/>
       <c r="I161" s="17"/>
-      <c r="J161" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J161" s="15"/>
     </row>
     <row r="162" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="15">
@@ -17366,18 +16430,12 @@
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="16"/>
-      <c r="E162" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E162" s="15"/>
       <c r="F162" s="17"/>
-      <c r="G162" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G162" s="15"/>
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
-      <c r="J162" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J162" s="15"/>
     </row>
     <row r="163" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="15">
@@ -17386,18 +16444,12 @@
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="16"/>
-      <c r="E163" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E163" s="15"/>
       <c r="F163" s="17"/>
-      <c r="G163" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G163" s="15"/>
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
-      <c r="J163" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J163" s="15"/>
     </row>
     <row r="164" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="15">
@@ -17406,18 +16458,12 @@
       </c>
       <c r="C164" s="15"/>
       <c r="D164" s="16"/>
-      <c r="E164" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E164" s="15"/>
       <c r="F164" s="17"/>
-      <c r="G164" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G164" s="15"/>
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
-      <c r="J164" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J164" s="15"/>
     </row>
     <row r="165" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="15">
@@ -17426,18 +16472,12 @@
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="16"/>
-      <c r="E165" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E165" s="15"/>
       <c r="F165" s="17"/>
-      <c r="G165" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G165" s="15"/>
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
-      <c r="J165" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J165" s="15"/>
     </row>
     <row r="166" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="15">
@@ -17446,18 +16486,12 @@
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="16"/>
-      <c r="E166" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E166" s="15"/>
       <c r="F166" s="17"/>
-      <c r="G166" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G166" s="15"/>
       <c r="H166" s="17"/>
       <c r="I166" s="17"/>
-      <c r="J166" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J166" s="15"/>
     </row>
     <row r="167" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="15">
@@ -17466,18 +16500,12 @@
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="16"/>
-      <c r="E167" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E167" s="15"/>
       <c r="F167" s="17"/>
-      <c r="G167" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G167" s="15"/>
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
-      <c r="J167" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J167" s="15"/>
     </row>
     <row r="168" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="15">
@@ -17486,18 +16514,12 @@
       </c>
       <c r="C168" s="15"/>
       <c r="D168" s="16"/>
-      <c r="E168" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E168" s="15"/>
       <c r="F168" s="17"/>
-      <c r="G168" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G168" s="15"/>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
-      <c r="J168" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J168" s="15"/>
     </row>
     <row r="169" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="15">
@@ -17506,18 +16528,12 @@
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="16"/>
-      <c r="E169" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E169" s="15"/>
       <c r="F169" s="17"/>
-      <c r="G169" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G169" s="15"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
-      <c r="J169" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J169" s="15"/>
     </row>
     <row r="170" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="15">
@@ -17526,18 +16542,12 @@
       </c>
       <c r="C170" s="15"/>
       <c r="D170" s="16"/>
-      <c r="E170" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E170" s="15"/>
       <c r="F170" s="17"/>
-      <c r="G170" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G170" s="15"/>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
-      <c r="J170" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J170" s="15"/>
     </row>
     <row r="171" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="15">
@@ -17546,18 +16556,12 @@
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="16"/>
-      <c r="E171" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E171" s="15"/>
       <c r="F171" s="17"/>
-      <c r="G171" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G171" s="15"/>
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
-      <c r="J171" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J171" s="15"/>
     </row>
     <row r="172" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="15">
@@ -17566,18 +16570,12 @@
       </c>
       <c r="C172" s="15"/>
       <c r="D172" s="16"/>
-      <c r="E172" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E172" s="15"/>
       <c r="F172" s="17"/>
-      <c r="G172" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G172" s="15"/>
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
-      <c r="J172" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J172" s="15"/>
     </row>
     <row r="173" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="15">
@@ -17586,18 +16584,12 @@
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="16"/>
-      <c r="E173" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E173" s="15"/>
       <c r="F173" s="17"/>
-      <c r="G173" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G173" s="15"/>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
-      <c r="J173" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J173" s="15"/>
     </row>
     <row r="174" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="15">
@@ -17606,18 +16598,12 @@
       </c>
       <c r="C174" s="15"/>
       <c r="D174" s="16"/>
-      <c r="E174" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E174" s="15"/>
       <c r="F174" s="17"/>
-      <c r="G174" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G174" s="15"/>
       <c r="H174" s="17"/>
       <c r="I174" s="17"/>
-      <c r="J174" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J174" s="15"/>
     </row>
     <row r="175" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="15">
@@ -17626,18 +16612,12 @@
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="16"/>
-      <c r="E175" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E175" s="15"/>
       <c r="F175" s="17"/>
-      <c r="G175" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G175" s="15"/>
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
-      <c r="J175" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J175" s="15"/>
     </row>
     <row r="176" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="15">
@@ -17646,18 +16626,12 @@
       </c>
       <c r="C176" s="15"/>
       <c r="D176" s="16"/>
-      <c r="E176" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E176" s="15"/>
       <c r="F176" s="17"/>
-      <c r="G176" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G176" s="15"/>
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
-      <c r="J176" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J176" s="15"/>
     </row>
     <row r="177" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="15">
@@ -17666,18 +16640,12 @@
       </c>
       <c r="C177" s="15"/>
       <c r="D177" s="16"/>
-      <c r="E177" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E177" s="15"/>
       <c r="F177" s="17"/>
-      <c r="G177" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G177" s="15"/>
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
-      <c r="J177" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J177" s="15"/>
     </row>
     <row r="178" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="15">
@@ -17686,18 +16654,12 @@
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="16"/>
-      <c r="E178" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E178" s="15"/>
       <c r="F178" s="17"/>
-      <c r="G178" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G178" s="15"/>
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
-      <c r="J178" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J178" s="15"/>
     </row>
     <row r="179" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="15">
@@ -17706,18 +16668,12 @@
       </c>
       <c r="C179" s="15"/>
       <c r="D179" s="16"/>
-      <c r="E179" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E179" s="15"/>
       <c r="F179" s="17"/>
-      <c r="G179" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G179" s="15"/>
       <c r="H179" s="17"/>
       <c r="I179" s="17"/>
-      <c r="J179" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J179" s="15"/>
     </row>
     <row r="180" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="15">
@@ -17726,18 +16682,12 @@
       </c>
       <c r="C180" s="15"/>
       <c r="D180" s="16"/>
-      <c r="E180" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E180" s="15"/>
       <c r="F180" s="17"/>
-      <c r="G180" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G180" s="15"/>
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
-      <c r="J180" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J180" s="15"/>
     </row>
     <row r="181" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="15">
@@ -17746,18 +16696,12 @@
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="16"/>
-      <c r="E181" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E181" s="15"/>
       <c r="F181" s="17"/>
-      <c r="G181" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G181" s="15"/>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
-      <c r="J181" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J181" s="15"/>
     </row>
     <row r="182" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="15">
@@ -17766,18 +16710,12 @@
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="16"/>
-      <c r="E182" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E182" s="15"/>
       <c r="F182" s="17"/>
-      <c r="G182" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G182" s="15"/>
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
-      <c r="J182" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J182" s="15"/>
     </row>
     <row r="183" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="15">
@@ -17786,18 +16724,12 @@
       </c>
       <c r="C183" s="15"/>
       <c r="D183" s="16"/>
-      <c r="E183" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E183" s="15"/>
       <c r="F183" s="17"/>
-      <c r="G183" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G183" s="15"/>
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
-      <c r="J183" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J183" s="15"/>
     </row>
     <row r="184" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="15">
@@ -17806,18 +16738,12 @@
       </c>
       <c r="C184" s="15"/>
       <c r="D184" s="16"/>
-      <c r="E184" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E184" s="15"/>
       <c r="F184" s="17"/>
-      <c r="G184" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G184" s="15"/>
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
-      <c r="J184" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J184" s="15"/>
     </row>
     <row r="185" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="15">
@@ -17826,18 +16752,12 @@
       </c>
       <c r="C185" s="15"/>
       <c r="D185" s="16"/>
-      <c r="E185" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E185" s="15"/>
       <c r="F185" s="17"/>
-      <c r="G185" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G185" s="15"/>
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
-      <c r="J185" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J185" s="15"/>
     </row>
     <row r="186" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="15">
@@ -17846,18 +16766,12 @@
       </c>
       <c r="C186" s="15"/>
       <c r="D186" s="16"/>
-      <c r="E186" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E186" s="15"/>
       <c r="F186" s="17"/>
-      <c r="G186" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G186" s="15"/>
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
-      <c r="J186" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J186" s="15"/>
     </row>
     <row r="187" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="15">
@@ -17866,18 +16780,12 @@
       </c>
       <c r="C187" s="15"/>
       <c r="D187" s="16"/>
-      <c r="E187" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E187" s="15"/>
       <c r="F187" s="17"/>
-      <c r="G187" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G187" s="15"/>
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
-      <c r="J187" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J187" s="15"/>
     </row>
     <row r="188" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="15">
@@ -17886,18 +16794,12 @@
       </c>
       <c r="C188" s="15"/>
       <c r="D188" s="16"/>
-      <c r="E188" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E188" s="15"/>
       <c r="F188" s="17"/>
-      <c r="G188" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G188" s="15"/>
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
-      <c r="J188" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J188" s="15"/>
     </row>
     <row r="189" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="15">
@@ -17906,18 +16808,12 @@
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="16"/>
-      <c r="E189" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E189" s="15"/>
       <c r="F189" s="17"/>
-      <c r="G189" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G189" s="15"/>
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
-      <c r="J189" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J189" s="15"/>
     </row>
     <row r="190" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="15">
@@ -17926,18 +16822,12 @@
       </c>
       <c r="C190" s="15"/>
       <c r="D190" s="16"/>
-      <c r="E190" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E190" s="15"/>
       <c r="F190" s="17"/>
-      <c r="G190" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G190" s="15"/>
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
-      <c r="J190" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J190" s="15"/>
     </row>
     <row r="191" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="15">
@@ -17946,18 +16836,12 @@
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="16"/>
-      <c r="E191" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E191" s="15"/>
       <c r="F191" s="17"/>
-      <c r="G191" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G191" s="15"/>
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
-      <c r="J191" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J191" s="15"/>
     </row>
     <row r="192" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="15">
@@ -17966,18 +16850,12 @@
       </c>
       <c r="C192" s="15"/>
       <c r="D192" s="16"/>
-      <c r="E192" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E192" s="15"/>
       <c r="F192" s="17"/>
-      <c r="G192" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G192" s="15"/>
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
-      <c r="J192" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J192" s="15"/>
     </row>
     <row r="193" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="15">
@@ -17986,18 +16864,12 @@
       </c>
       <c r="C193" s="15"/>
       <c r="D193" s="16"/>
-      <c r="E193" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E193" s="15"/>
       <c r="F193" s="17"/>
-      <c r="G193" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G193" s="15"/>
       <c r="H193" s="17"/>
       <c r="I193" s="17"/>
-      <c r="J193" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J193" s="15"/>
     </row>
     <row r="194" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="15">
@@ -18006,18 +16878,12 @@
       </c>
       <c r="C194" s="15"/>
       <c r="D194" s="16"/>
-      <c r="E194" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E194" s="15"/>
       <c r="F194" s="17"/>
-      <c r="G194" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G194" s="15"/>
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
-      <c r="J194" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J194" s="15"/>
     </row>
     <row r="195" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="15">
@@ -18026,18 +16892,12 @@
       </c>
       <c r="C195" s="15"/>
       <c r="D195" s="16"/>
-      <c r="E195" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E195" s="15"/>
       <c r="F195" s="17"/>
-      <c r="G195" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G195" s="15"/>
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
-      <c r="J195" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J195" s="15"/>
     </row>
     <row r="196" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="15">
@@ -18046,18 +16906,12 @@
       </c>
       <c r="C196" s="15"/>
       <c r="D196" s="16"/>
-      <c r="E196" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E196" s="15"/>
       <c r="F196" s="17"/>
-      <c r="G196" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G196" s="15"/>
       <c r="H196" s="17"/>
       <c r="I196" s="17"/>
-      <c r="J196" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J196" s="15"/>
     </row>
     <row r="197" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="15">
@@ -18066,18 +16920,12 @@
       </c>
       <c r="C197" s="15"/>
       <c r="D197" s="16"/>
-      <c r="E197" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E197" s="15"/>
       <c r="F197" s="17"/>
-      <c r="G197" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G197" s="15"/>
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
-      <c r="J197" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J197" s="15"/>
     </row>
     <row r="198" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="15">
@@ -18086,18 +16934,12 @@
       </c>
       <c r="C198" s="15"/>
       <c r="D198" s="16"/>
-      <c r="E198" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E198" s="15"/>
       <c r="F198" s="17"/>
-      <c r="G198" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G198" s="15"/>
       <c r="H198" s="17"/>
       <c r="I198" s="17"/>
-      <c r="J198" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J198" s="15"/>
     </row>
     <row r="199" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="15">
@@ -18106,18 +16948,12 @@
       </c>
       <c r="C199" s="15"/>
       <c r="D199" s="16"/>
-      <c r="E199" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E199" s="15"/>
       <c r="F199" s="17"/>
-      <c r="G199" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G199" s="15"/>
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
-      <c r="J199" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J199" s="15"/>
     </row>
     <row r="200" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="15">
@@ -18126,18 +16962,12 @@
       </c>
       <c r="C200" s="15"/>
       <c r="D200" s="16"/>
-      <c r="E200" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E200" s="15"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G200" s="15"/>
       <c r="H200" s="17"/>
       <c r="I200" s="17"/>
-      <c r="J200" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J200" s="15"/>
     </row>
     <row r="201" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="15">
@@ -18146,18 +16976,12 @@
       </c>
       <c r="C201" s="15"/>
       <c r="D201" s="16"/>
-      <c r="E201" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E201" s="15"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G201" s="15"/>
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
-      <c r="J201" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J201" s="15"/>
     </row>
     <row r="202" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="15">
@@ -18166,18 +16990,12 @@
       </c>
       <c r="C202" s="15"/>
       <c r="D202" s="16"/>
-      <c r="E202" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E202" s="15"/>
       <c r="F202" s="17"/>
-      <c r="G202" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G202" s="15"/>
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
-      <c r="J202" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J202" s="15"/>
     </row>
     <row r="203" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="15">
@@ -18186,18 +17004,12 @@
       </c>
       <c r="C203" s="15"/>
       <c r="D203" s="16"/>
-      <c r="E203" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E203" s="15"/>
       <c r="F203" s="17"/>
-      <c r="G203" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G203" s="15"/>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
-      <c r="J203" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J203" s="15"/>
     </row>
     <row r="204" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="15">
@@ -18206,18 +17018,12 @@
       </c>
       <c r="C204" s="15"/>
       <c r="D204" s="16"/>
-      <c r="E204" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E204" s="15"/>
       <c r="F204" s="17"/>
-      <c r="G204" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G204" s="15"/>
       <c r="H204" s="17"/>
       <c r="I204" s="17"/>
-      <c r="J204" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J204" s="15"/>
     </row>
     <row r="205" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="15">
@@ -18226,18 +17032,12 @@
       </c>
       <c r="C205" s="15"/>
       <c r="D205" s="16"/>
-      <c r="E205" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E205" s="15"/>
       <c r="F205" s="17"/>
-      <c r="G205" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G205" s="15"/>
       <c r="H205" s="17"/>
       <c r="I205" s="17"/>
-      <c r="J205" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J205" s="15"/>
     </row>
     <row r="206" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="15">
@@ -18246,18 +17046,12 @@
       </c>
       <c r="C206" s="15"/>
       <c r="D206" s="16"/>
-      <c r="E206" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E206" s="15"/>
       <c r="F206" s="17"/>
-      <c r="G206" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G206" s="15"/>
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
-      <c r="J206" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J206" s="15"/>
     </row>
     <row r="207" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="15">
@@ -18266,18 +17060,12 @@
       </c>
       <c r="C207" s="15"/>
       <c r="D207" s="16"/>
-      <c r="E207" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E207" s="15"/>
       <c r="F207" s="17"/>
-      <c r="G207" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G207" s="15"/>
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
-      <c r="J207" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J207" s="15"/>
     </row>
     <row r="208" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="15">
@@ -18286,18 +17074,12 @@
       </c>
       <c r="C208" s="15"/>
       <c r="D208" s="16"/>
-      <c r="E208" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E208" s="15"/>
       <c r="F208" s="17"/>
-      <c r="G208" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G208" s="15"/>
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
-      <c r="J208" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J208" s="15"/>
     </row>
     <row r="209" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="15">
@@ -18306,18 +17088,12 @@
       </c>
       <c r="C209" s="15"/>
       <c r="D209" s="16"/>
-      <c r="E209" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E209" s="15"/>
       <c r="F209" s="17"/>
-      <c r="G209" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G209" s="15"/>
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
-      <c r="J209" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J209" s="15"/>
     </row>
     <row r="210" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="15">
@@ -18326,18 +17102,12 @@
       </c>
       <c r="C210" s="15"/>
       <c r="D210" s="16"/>
-      <c r="E210" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E210" s="15"/>
       <c r="F210" s="17"/>
-      <c r="G210" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G210" s="15"/>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
-      <c r="J210" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J210" s="15"/>
     </row>
     <row r="211" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="15">
@@ -18346,18 +17116,12 @@
       </c>
       <c r="C211" s="15"/>
       <c r="D211" s="16"/>
-      <c r="E211" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E211" s="15"/>
       <c r="F211" s="17"/>
-      <c r="G211" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G211" s="15"/>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
-      <c r="J211" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J211" s="15"/>
     </row>
     <row r="212" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="15">
@@ -18366,18 +17130,12 @@
       </c>
       <c r="C212" s="15"/>
       <c r="D212" s="16"/>
-      <c r="E212" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E212" s="15"/>
       <c r="F212" s="17"/>
-      <c r="G212" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G212" s="15"/>
       <c r="H212" s="17"/>
       <c r="I212" s="17"/>
-      <c r="J212" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J212" s="15"/>
     </row>
     <row r="213" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="15">
@@ -18386,18 +17144,12 @@
       </c>
       <c r="C213" s="15"/>
       <c r="D213" s="16"/>
-      <c r="E213" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E213" s="15"/>
       <c r="F213" s="17"/>
-      <c r="G213" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G213" s="15"/>
       <c r="H213" s="17"/>
       <c r="I213" s="17"/>
-      <c r="J213" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J213" s="15"/>
     </row>
     <row r="214" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="15">
@@ -18406,18 +17158,12 @@
       </c>
       <c r="C214" s="15"/>
       <c r="D214" s="16"/>
-      <c r="E214" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E214" s="15"/>
       <c r="F214" s="17"/>
-      <c r="G214" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G214" s="15"/>
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
-      <c r="J214" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J214" s="15"/>
     </row>
     <row r="215" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="15">
@@ -18426,18 +17172,12 @@
       </c>
       <c r="C215" s="15"/>
       <c r="D215" s="16"/>
-      <c r="E215" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E215" s="15"/>
       <c r="F215" s="17"/>
-      <c r="G215" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G215" s="15"/>
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
-      <c r="J215" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J215" s="15"/>
     </row>
     <row r="216" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="15">
@@ -18446,18 +17186,12 @@
       </c>
       <c r="C216" s="15"/>
       <c r="D216" s="16"/>
-      <c r="E216" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E216" s="15"/>
       <c r="F216" s="17"/>
-      <c r="G216" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G216" s="15"/>
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
-      <c r="J216" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J216" s="15"/>
     </row>
     <row r="217" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="15">
@@ -18466,18 +17200,12 @@
       </c>
       <c r="C217" s="15"/>
       <c r="D217" s="16"/>
-      <c r="E217" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E217" s="15"/>
       <c r="F217" s="17"/>
-      <c r="G217" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G217" s="15"/>
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
-      <c r="J217" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J217" s="15"/>
     </row>
     <row r="218" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="15">
@@ -18486,18 +17214,12 @@
       </c>
       <c r="C218" s="15"/>
       <c r="D218" s="16"/>
-      <c r="E218" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E218" s="15"/>
       <c r="F218" s="17"/>
-      <c r="G218" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G218" s="15"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
-      <c r="J218" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J218" s="15"/>
     </row>
     <row r="219" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="15">
@@ -18506,18 +17228,12 @@
       </c>
       <c r="C219" s="15"/>
       <c r="D219" s="16"/>
-      <c r="E219" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E219" s="15"/>
       <c r="F219" s="17"/>
-      <c r="G219" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G219" s="15"/>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
-      <c r="J219" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J219" s="15"/>
     </row>
     <row r="220" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="15">
@@ -18526,18 +17242,12 @@
       </c>
       <c r="C220" s="15"/>
       <c r="D220" s="16"/>
-      <c r="E220" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E220" s="15"/>
       <c r="F220" s="17"/>
-      <c r="G220" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G220" s="15"/>
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
-      <c r="J220" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J220" s="15"/>
     </row>
     <row r="221" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="15">
@@ -18546,18 +17256,12 @@
       </c>
       <c r="C221" s="15"/>
       <c r="D221" s="16"/>
-      <c r="E221" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E221" s="15"/>
       <c r="F221" s="17"/>
-      <c r="G221" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G221" s="15"/>
       <c r="H221" s="17"/>
       <c r="I221" s="17"/>
-      <c r="J221" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J221" s="15"/>
     </row>
     <row r="222" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="15">
@@ -18566,18 +17270,12 @@
       </c>
       <c r="C222" s="15"/>
       <c r="D222" s="16"/>
-      <c r="E222" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E222" s="15"/>
       <c r="F222" s="17"/>
-      <c r="G222" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G222" s="15"/>
       <c r="H222" s="17"/>
       <c r="I222" s="17"/>
-      <c r="J222" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J222" s="15"/>
     </row>
     <row r="223" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="15">
@@ -18586,18 +17284,12 @@
       </c>
       <c r="C223" s="15"/>
       <c r="D223" s="16"/>
-      <c r="E223" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E223" s="15"/>
       <c r="F223" s="17"/>
-      <c r="G223" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G223" s="15"/>
       <c r="H223" s="17"/>
       <c r="I223" s="17"/>
-      <c r="J223" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J223" s="15"/>
     </row>
     <row r="224" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="15">
@@ -18606,18 +17298,12 @@
       </c>
       <c r="C224" s="15"/>
       <c r="D224" s="16"/>
-      <c r="E224" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E224" s="15"/>
       <c r="F224" s="17"/>
-      <c r="G224" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G224" s="15"/>
       <c r="H224" s="17"/>
       <c r="I224" s="17"/>
-      <c r="J224" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J224" s="15"/>
     </row>
     <row r="225" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="15">
@@ -18626,18 +17312,12 @@
       </c>
       <c r="C225" s="15"/>
       <c r="D225" s="16"/>
-      <c r="E225" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E225" s="15"/>
       <c r="F225" s="17"/>
-      <c r="G225" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G225" s="15"/>
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
-      <c r="J225" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J225" s="15"/>
     </row>
     <row r="226" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="15">
@@ -18646,18 +17326,12 @@
       </c>
       <c r="C226" s="15"/>
       <c r="D226" s="16"/>
-      <c r="E226" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E226" s="15"/>
       <c r="F226" s="17"/>
-      <c r="G226" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G226" s="15"/>
       <c r="H226" s="17"/>
       <c r="I226" s="17"/>
-      <c r="J226" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J226" s="15"/>
     </row>
     <row r="227" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="15">
@@ -18666,18 +17340,12 @@
       </c>
       <c r="C227" s="15"/>
       <c r="D227" s="16"/>
-      <c r="E227" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E227" s="15"/>
       <c r="F227" s="17"/>
-      <c r="G227" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G227" s="15"/>
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
-      <c r="J227" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J227" s="15"/>
     </row>
     <row r="228" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="15">
@@ -18686,18 +17354,12 @@
       </c>
       <c r="C228" s="15"/>
       <c r="D228" s="16"/>
-      <c r="E228" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E228" s="15"/>
       <c r="F228" s="17"/>
-      <c r="G228" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G228" s="15"/>
       <c r="H228" s="17"/>
       <c r="I228" s="17"/>
-      <c r="J228" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J228" s="15"/>
     </row>
     <row r="229" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="15">
@@ -18706,18 +17368,12 @@
       </c>
       <c r="C229" s="15"/>
       <c r="D229" s="16"/>
-      <c r="E229" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E229" s="15"/>
       <c r="F229" s="17"/>
-      <c r="G229" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G229" s="15"/>
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
-      <c r="J229" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J229" s="15"/>
     </row>
     <row r="230" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="15">
@@ -18726,18 +17382,12 @@
       </c>
       <c r="C230" s="15"/>
       <c r="D230" s="16"/>
-      <c r="E230" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E230" s="15"/>
       <c r="F230" s="17"/>
-      <c r="G230" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G230" s="15"/>
       <c r="H230" s="17"/>
       <c r="I230" s="17"/>
-      <c r="J230" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J230" s="15"/>
     </row>
     <row r="231" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="15">
@@ -18746,18 +17396,12 @@
       </c>
       <c r="C231" s="15"/>
       <c r="D231" s="16"/>
-      <c r="E231" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E231" s="15"/>
       <c r="F231" s="17"/>
-      <c r="G231" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G231" s="15"/>
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
-      <c r="J231" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J231" s="15"/>
     </row>
     <row r="232" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="15">
@@ -18766,18 +17410,12 @@
       </c>
       <c r="C232" s="15"/>
       <c r="D232" s="16"/>
-      <c r="E232" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E232" s="15"/>
       <c r="F232" s="17"/>
-      <c r="G232" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G232" s="15"/>
       <c r="H232" s="17"/>
       <c r="I232" s="17"/>
-      <c r="J232" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J232" s="15"/>
     </row>
     <row r="233" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="15">
@@ -18786,18 +17424,12 @@
       </c>
       <c r="C233" s="15"/>
       <c r="D233" s="16"/>
-      <c r="E233" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E233" s="15"/>
       <c r="F233" s="17"/>
-      <c r="G233" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G233" s="15"/>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
-      <c r="J233" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J233" s="15"/>
     </row>
     <row r="234" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="15">
@@ -18806,18 +17438,12 @@
       </c>
       <c r="C234" s="15"/>
       <c r="D234" s="16"/>
-      <c r="E234" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E234" s="15"/>
       <c r="F234" s="17"/>
-      <c r="G234" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G234" s="15"/>
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
-      <c r="J234" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J234" s="15"/>
     </row>
     <row r="235" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="15">
@@ -18826,18 +17452,12 @@
       </c>
       <c r="C235" s="15"/>
       <c r="D235" s="16"/>
-      <c r="E235" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E235" s="15"/>
       <c r="F235" s="17"/>
-      <c r="G235" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G235" s="15"/>
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
-      <c r="J235" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J235" s="15"/>
     </row>
     <row r="236" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="15">
@@ -18846,18 +17466,12 @@
       </c>
       <c r="C236" s="15"/>
       <c r="D236" s="16"/>
-      <c r="E236" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E236" s="15"/>
       <c r="F236" s="17"/>
-      <c r="G236" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G236" s="15"/>
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
-      <c r="J236" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J236" s="15"/>
     </row>
     <row r="237" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="15">
@@ -18866,18 +17480,12 @@
       </c>
       <c r="C237" s="15"/>
       <c r="D237" s="16"/>
-      <c r="E237" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E237" s="15"/>
       <c r="F237" s="17"/>
-      <c r="G237" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G237" s="15"/>
       <c r="H237" s="17"/>
       <c r="I237" s="17"/>
-      <c r="J237" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J237" s="15"/>
     </row>
     <row r="238" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="15">
@@ -18886,18 +17494,12 @@
       </c>
       <c r="C238" s="15"/>
       <c r="D238" s="16"/>
-      <c r="E238" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E238" s="15"/>
       <c r="F238" s="17"/>
-      <c r="G238" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G238" s="15"/>
       <c r="H238" s="17"/>
       <c r="I238" s="17"/>
-      <c r="J238" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J238" s="15"/>
     </row>
     <row r="239" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="15">
@@ -18906,18 +17508,12 @@
       </c>
       <c r="C239" s="15"/>
       <c r="D239" s="16"/>
-      <c r="E239" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E239" s="15"/>
       <c r="F239" s="17"/>
-      <c r="G239" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G239" s="15"/>
       <c r="H239" s="17"/>
       <c r="I239" s="17"/>
-      <c r="J239" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J239" s="15"/>
     </row>
     <row r="240" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="15">
@@ -18926,18 +17522,12 @@
       </c>
       <c r="C240" s="15"/>
       <c r="D240" s="16"/>
-      <c r="E240" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E240" s="15"/>
       <c r="F240" s="17"/>
-      <c r="G240" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G240" s="15"/>
       <c r="H240" s="17"/>
       <c r="I240" s="17"/>
-      <c r="J240" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J240" s="15"/>
     </row>
     <row r="241" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="15">
@@ -18946,18 +17536,12 @@
       </c>
       <c r="C241" s="15"/>
       <c r="D241" s="16"/>
-      <c r="E241" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E241" s="15"/>
       <c r="F241" s="17"/>
-      <c r="G241" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G241" s="15"/>
       <c r="H241" s="17"/>
       <c r="I241" s="17"/>
-      <c r="J241" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J241" s="15"/>
     </row>
     <row r="242" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="15">
@@ -18966,18 +17550,12 @@
       </c>
       <c r="C242" s="15"/>
       <c r="D242" s="16"/>
-      <c r="E242" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E242" s="15"/>
       <c r="F242" s="17"/>
-      <c r="G242" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G242" s="15"/>
       <c r="H242" s="17"/>
       <c r="I242" s="17"/>
-      <c r="J242" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J242" s="15"/>
     </row>
     <row r="243" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="15">
@@ -18986,18 +17564,12 @@
       </c>
       <c r="C243" s="15"/>
       <c r="D243" s="16"/>
-      <c r="E243" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E243" s="15"/>
       <c r="F243" s="17"/>
-      <c r="G243" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G243" s="15"/>
       <c r="H243" s="17"/>
       <c r="I243" s="17"/>
-      <c r="J243" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J243" s="15"/>
     </row>
     <row r="244" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="15">
@@ -19006,18 +17578,12 @@
       </c>
       <c r="C244" s="15"/>
       <c r="D244" s="16"/>
-      <c r="E244" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E244" s="15"/>
       <c r="F244" s="17"/>
-      <c r="G244" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G244" s="15"/>
       <c r="H244" s="17"/>
       <c r="I244" s="17"/>
-      <c r="J244" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J244" s="15"/>
     </row>
     <row r="245" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="15">
@@ -19026,18 +17592,12 @@
       </c>
       <c r="C245" s="15"/>
       <c r="D245" s="16"/>
-      <c r="E245" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E245" s="15"/>
       <c r="F245" s="17"/>
-      <c r="G245" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G245" s="15"/>
       <c r="H245" s="17"/>
       <c r="I245" s="17"/>
-      <c r="J245" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J245" s="15"/>
     </row>
     <row r="246" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="15">
@@ -19046,18 +17606,12 @@
       </c>
       <c r="C246" s="15"/>
       <c r="D246" s="16"/>
-      <c r="E246" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E246" s="15"/>
       <c r="F246" s="17"/>
-      <c r="G246" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G246" s="15"/>
       <c r="H246" s="17"/>
       <c r="I246" s="17"/>
-      <c r="J246" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J246" s="15"/>
     </row>
     <row r="247" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="15">
@@ -19066,18 +17620,12 @@
       </c>
       <c r="C247" s="15"/>
       <c r="D247" s="16"/>
-      <c r="E247" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E247" s="15"/>
       <c r="F247" s="17"/>
-      <c r="G247" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G247" s="15"/>
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
-      <c r="J247" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J247" s="15"/>
     </row>
     <row r="248" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="15">
@@ -19086,18 +17634,12 @@
       </c>
       <c r="C248" s="15"/>
       <c r="D248" s="16"/>
-      <c r="E248" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E248" s="15"/>
       <c r="F248" s="17"/>
-      <c r="G248" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G248" s="15"/>
       <c r="H248" s="17"/>
       <c r="I248" s="17"/>
-      <c r="J248" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J248" s="15"/>
     </row>
     <row r="249" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="15">
@@ -19106,18 +17648,12 @@
       </c>
       <c r="C249" s="15"/>
       <c r="D249" s="16"/>
-      <c r="E249" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E249" s="15"/>
       <c r="F249" s="17"/>
-      <c r="G249" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G249" s="15"/>
       <c r="H249" s="17"/>
       <c r="I249" s="17"/>
-      <c r="J249" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J249" s="15"/>
     </row>
     <row r="250" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="15">
@@ -19126,18 +17662,12 @@
       </c>
       <c r="C250" s="15"/>
       <c r="D250" s="16"/>
-      <c r="E250" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E250" s="15"/>
       <c r="F250" s="17"/>
-      <c r="G250" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G250" s="15"/>
       <c r="H250" s="17"/>
       <c r="I250" s="17"/>
-      <c r="J250" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J250" s="15"/>
     </row>
     <row r="251" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="15">
@@ -19146,18 +17676,12 @@
       </c>
       <c r="C251" s="15"/>
       <c r="D251" s="16"/>
-      <c r="E251" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E251" s="15"/>
       <c r="F251" s="17"/>
-      <c r="G251" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G251" s="15"/>
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
-      <c r="J251" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J251" s="15"/>
     </row>
     <row r="252" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="15">
@@ -19166,18 +17690,12 @@
       </c>
       <c r="C252" s="15"/>
       <c r="D252" s="16"/>
-      <c r="E252" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E252" s="15"/>
       <c r="F252" s="17"/>
-      <c r="G252" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G252" s="15"/>
       <c r="H252" s="17"/>
       <c r="I252" s="17"/>
-      <c r="J252" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J252" s="15"/>
     </row>
     <row r="253" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="15">
@@ -19186,18 +17704,12 @@
       </c>
       <c r="C253" s="15"/>
       <c r="D253" s="16"/>
-      <c r="E253" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E253" s="15"/>
       <c r="F253" s="17"/>
-      <c r="G253" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G253" s="15"/>
       <c r="H253" s="17"/>
       <c r="I253" s="17"/>
-      <c r="J253" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J253" s="15"/>
     </row>
     <row r="254" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="15">
@@ -19206,18 +17718,12 @@
       </c>
       <c r="C254" s="15"/>
       <c r="D254" s="16"/>
-      <c r="E254" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E254" s="15"/>
       <c r="F254" s="17"/>
-      <c r="G254" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G254" s="15"/>
       <c r="H254" s="17"/>
       <c r="I254" s="17"/>
-      <c r="J254" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J254" s="15"/>
     </row>
     <row r="255" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="15">
@@ -19226,18 +17732,12 @@
       </c>
       <c r="C255" s="15"/>
       <c r="D255" s="16"/>
-      <c r="E255" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E255" s="15"/>
       <c r="F255" s="17"/>
-      <c r="G255" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G255" s="15"/>
       <c r="H255" s="17"/>
       <c r="I255" s="17"/>
-      <c r="J255" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J255" s="15"/>
     </row>
     <row r="256" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="15">
@@ -19246,18 +17746,12 @@
       </c>
       <c r="C256" s="15"/>
       <c r="D256" s="16"/>
-      <c r="E256" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E256" s="15"/>
       <c r="F256" s="17"/>
-      <c r="G256" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G256" s="15"/>
       <c r="H256" s="17"/>
       <c r="I256" s="17"/>
-      <c r="J256" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J256" s="15"/>
     </row>
     <row r="257" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="15">
@@ -19266,18 +17760,12 @@
       </c>
       <c r="C257" s="15"/>
       <c r="D257" s="16"/>
-      <c r="E257" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E257" s="15"/>
       <c r="F257" s="17"/>
-      <c r="G257" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G257" s="15"/>
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
-      <c r="J257" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J257" s="15"/>
     </row>
     <row r="258" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="15">
@@ -19286,18 +17774,12 @@
       </c>
       <c r="C258" s="15"/>
       <c r="D258" s="16"/>
-      <c r="E258" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E258" s="15"/>
       <c r="F258" s="17"/>
-      <c r="G258" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G258" s="15"/>
       <c r="H258" s="17"/>
       <c r="I258" s="17"/>
-      <c r="J258" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J258" s="15"/>
     </row>
     <row r="259" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="15">
@@ -19306,18 +17788,12 @@
       </c>
       <c r="C259" s="15"/>
       <c r="D259" s="16"/>
-      <c r="E259" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E259" s="15"/>
       <c r="F259" s="17"/>
-      <c r="G259" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G259" s="15"/>
       <c r="H259" s="17"/>
       <c r="I259" s="17"/>
-      <c r="J259" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J259" s="15"/>
     </row>
     <row r="260" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="15">
@@ -19326,18 +17802,12 @@
       </c>
       <c r="C260" s="15"/>
       <c r="D260" s="16"/>
-      <c r="E260" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E260" s="15"/>
       <c r="F260" s="17"/>
-      <c r="G260" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G260" s="15"/>
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
-      <c r="J260" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J260" s="15"/>
     </row>
     <row r="261" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="15">
@@ -19346,18 +17816,12 @@
       </c>
       <c r="C261" s="15"/>
       <c r="D261" s="16"/>
-      <c r="E261" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E261" s="15"/>
       <c r="F261" s="17"/>
-      <c r="G261" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G261" s="15"/>
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
-      <c r="J261" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J261" s="15"/>
     </row>
     <row r="262" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="15">
@@ -19366,18 +17830,12 @@
       </c>
       <c r="C262" s="15"/>
       <c r="D262" s="16"/>
-      <c r="E262" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E262" s="15"/>
       <c r="F262" s="17"/>
-      <c r="G262" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G262" s="15"/>
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
-      <c r="J262" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J262" s="15"/>
     </row>
     <row r="263" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="15">
@@ -19386,18 +17844,12 @@
       </c>
       <c r="C263" s="15"/>
       <c r="D263" s="16"/>
-      <c r="E263" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E263" s="15"/>
       <c r="F263" s="17"/>
-      <c r="G263" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G263" s="15"/>
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
-      <c r="J263" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J263" s="15"/>
     </row>
     <row r="264" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="15">
@@ -19406,18 +17858,12 @@
       </c>
       <c r="C264" s="15"/>
       <c r="D264" s="16"/>
-      <c r="E264" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E264" s="15"/>
       <c r="F264" s="17"/>
-      <c r="G264" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G264" s="15"/>
       <c r="H264" s="17"/>
       <c r="I264" s="17"/>
-      <c r="J264" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J264" s="15"/>
     </row>
     <row r="265" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="15">
@@ -19426,18 +17872,12 @@
       </c>
       <c r="C265" s="15"/>
       <c r="D265" s="16"/>
-      <c r="E265" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E265" s="15"/>
       <c r="F265" s="17"/>
-      <c r="G265" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G265" s="15"/>
       <c r="H265" s="17"/>
       <c r="I265" s="17"/>
-      <c r="J265" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J265" s="15"/>
     </row>
     <row r="266" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="15">
@@ -19446,18 +17886,12 @@
       </c>
       <c r="C266" s="15"/>
       <c r="D266" s="16"/>
-      <c r="E266" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E266" s="15"/>
       <c r="F266" s="17"/>
-      <c r="G266" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G266" s="15"/>
       <c r="H266" s="17"/>
       <c r="I266" s="17"/>
-      <c r="J266" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J266" s="15"/>
     </row>
     <row r="267" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="15">
@@ -19466,18 +17900,12 @@
       </c>
       <c r="C267" s="15"/>
       <c r="D267" s="16"/>
-      <c r="E267" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E267" s="15"/>
       <c r="F267" s="17"/>
-      <c r="G267" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G267" s="15"/>
       <c r="H267" s="17"/>
       <c r="I267" s="17"/>
-      <c r="J267" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J267" s="15"/>
     </row>
     <row r="268" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="15">
@@ -19486,18 +17914,12 @@
       </c>
       <c r="C268" s="15"/>
       <c r="D268" s="16"/>
-      <c r="E268" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E268" s="15"/>
       <c r="F268" s="17"/>
-      <c r="G268" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G268" s="15"/>
       <c r="H268" s="17"/>
       <c r="I268" s="17"/>
-      <c r="J268" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J268" s="15"/>
     </row>
     <row r="269" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="15">
@@ -19506,18 +17928,12 @@
       </c>
       <c r="C269" s="15"/>
       <c r="D269" s="16"/>
-      <c r="E269" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E269" s="15"/>
       <c r="F269" s="17"/>
-      <c r="G269" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G269" s="15"/>
       <c r="H269" s="17"/>
       <c r="I269" s="17"/>
-      <c r="J269" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J269" s="15"/>
     </row>
     <row r="270" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="15">
@@ -19526,18 +17942,12 @@
       </c>
       <c r="C270" s="15"/>
       <c r="D270" s="16"/>
-      <c r="E270" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E270" s="15"/>
       <c r="F270" s="17"/>
-      <c r="G270" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G270" s="15"/>
       <c r="H270" s="17"/>
       <c r="I270" s="17"/>
-      <c r="J270" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J270" s="15"/>
     </row>
     <row r="271" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="15">
@@ -19546,18 +17956,12 @@
       </c>
       <c r="C271" s="15"/>
       <c r="D271" s="16"/>
-      <c r="E271" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E271" s="15"/>
       <c r="F271" s="17"/>
-      <c r="G271" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G271" s="15"/>
       <c r="H271" s="17"/>
       <c r="I271" s="17"/>
-      <c r="J271" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J271" s="15"/>
     </row>
     <row r="272" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="15">
@@ -19566,18 +17970,12 @@
       </c>
       <c r="C272" s="15"/>
       <c r="D272" s="16"/>
-      <c r="E272" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E272" s="15"/>
       <c r="F272" s="17"/>
-      <c r="G272" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G272" s="15"/>
       <c r="H272" s="17"/>
       <c r="I272" s="17"/>
-      <c r="J272" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J272" s="15"/>
     </row>
     <row r="273" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="15">
@@ -19586,18 +17984,12 @@
       </c>
       <c r="C273" s="15"/>
       <c r="D273" s="16"/>
-      <c r="E273" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E273" s="15"/>
       <c r="F273" s="17"/>
-      <c r="G273" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G273" s="15"/>
       <c r="H273" s="17"/>
       <c r="I273" s="17"/>
-      <c r="J273" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J273" s="15"/>
     </row>
     <row r="274" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="15">
@@ -19606,18 +17998,12 @@
       </c>
       <c r="C274" s="15"/>
       <c r="D274" s="16"/>
-      <c r="E274" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E274" s="15"/>
       <c r="F274" s="17"/>
-      <c r="G274" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G274" s="15"/>
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
-      <c r="J274" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J274" s="15"/>
     </row>
     <row r="275" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="15">
@@ -19626,18 +18012,12 @@
       </c>
       <c r="C275" s="15"/>
       <c r="D275" s="16"/>
-      <c r="E275" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E275" s="15"/>
       <c r="F275" s="17"/>
-      <c r="G275" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G275" s="15"/>
       <c r="H275" s="17"/>
       <c r="I275" s="17"/>
-      <c r="J275" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J275" s="15"/>
     </row>
     <row r="276" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="15">
@@ -19646,18 +18026,12 @@
       </c>
       <c r="C276" s="15"/>
       <c r="D276" s="16"/>
-      <c r="E276" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E276" s="15"/>
       <c r="F276" s="17"/>
-      <c r="G276" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G276" s="15"/>
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
-      <c r="J276" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J276" s="15"/>
     </row>
     <row r="277" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="15">
@@ -19666,18 +18040,12 @@
       </c>
       <c r="C277" s="15"/>
       <c r="D277" s="16"/>
-      <c r="E277" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E277" s="15"/>
       <c r="F277" s="17"/>
-      <c r="G277" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G277" s="15"/>
       <c r="H277" s="17"/>
       <c r="I277" s="17"/>
-      <c r="J277" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J277" s="15"/>
     </row>
     <row r="278" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="15">
@@ -19686,18 +18054,12 @@
       </c>
       <c r="C278" s="15"/>
       <c r="D278" s="16"/>
-      <c r="E278" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E278" s="15"/>
       <c r="F278" s="17"/>
-      <c r="G278" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G278" s="15"/>
       <c r="H278" s="17"/>
       <c r="I278" s="17"/>
-      <c r="J278" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J278" s="15"/>
     </row>
     <row r="279" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="15">
@@ -19706,18 +18068,12 @@
       </c>
       <c r="C279" s="15"/>
       <c r="D279" s="16"/>
-      <c r="E279" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E279" s="15"/>
       <c r="F279" s="17"/>
-      <c r="G279" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G279" s="15"/>
       <c r="H279" s="17"/>
       <c r="I279" s="17"/>
-      <c r="J279" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J279" s="15"/>
     </row>
     <row r="280" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="15">
@@ -19726,18 +18082,12 @@
       </c>
       <c r="C280" s="15"/>
       <c r="D280" s="16"/>
-      <c r="E280" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E280" s="15"/>
       <c r="F280" s="17"/>
-      <c r="G280" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G280" s="15"/>
       <c r="H280" s="17"/>
       <c r="I280" s="17"/>
-      <c r="J280" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J280" s="15"/>
     </row>
     <row r="281" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="15">
@@ -19746,18 +18096,12 @@
       </c>
       <c r="C281" s="15"/>
       <c r="D281" s="16"/>
-      <c r="E281" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E281" s="15"/>
       <c r="F281" s="17"/>
-      <c r="G281" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G281" s="15"/>
       <c r="H281" s="17"/>
       <c r="I281" s="17"/>
-      <c r="J281" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J281" s="15"/>
     </row>
     <row r="282" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="15">
@@ -19766,18 +18110,12 @@
       </c>
       <c r="C282" s="15"/>
       <c r="D282" s="16"/>
-      <c r="E282" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E282" s="15"/>
       <c r="F282" s="17"/>
-      <c r="G282" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G282" s="15"/>
       <c r="H282" s="17"/>
       <c r="I282" s="17"/>
-      <c r="J282" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J282" s="15"/>
     </row>
     <row r="283" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="15">
@@ -19786,18 +18124,12 @@
       </c>
       <c r="C283" s="15"/>
       <c r="D283" s="16"/>
-      <c r="E283" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E283" s="15"/>
       <c r="F283" s="17"/>
-      <c r="G283" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G283" s="15"/>
       <c r="H283" s="17"/>
       <c r="I283" s="17"/>
-      <c r="J283" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J283" s="15"/>
     </row>
     <row r="284" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="15">
@@ -19806,18 +18138,12 @@
       </c>
       <c r="C284" s="15"/>
       <c r="D284" s="16"/>
-      <c r="E284" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E284" s="15"/>
       <c r="F284" s="17"/>
-      <c r="G284" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G284" s="15"/>
       <c r="H284" s="17"/>
       <c r="I284" s="17"/>
-      <c r="J284" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J284" s="15"/>
     </row>
     <row r="285" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="15">
@@ -19826,18 +18152,12 @@
       </c>
       <c r="C285" s="15"/>
       <c r="D285" s="16"/>
-      <c r="E285" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E285" s="15"/>
       <c r="F285" s="17"/>
-      <c r="G285" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G285" s="15"/>
       <c r="H285" s="17"/>
       <c r="I285" s="17"/>
-      <c r="J285" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J285" s="15"/>
     </row>
     <row r="286" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="15">
@@ -19846,18 +18166,12 @@
       </c>
       <c r="C286" s="15"/>
       <c r="D286" s="16"/>
-      <c r="E286" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E286" s="15"/>
       <c r="F286" s="17"/>
-      <c r="G286" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G286" s="15"/>
       <c r="H286" s="17"/>
       <c r="I286" s="17"/>
-      <c r="J286" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J286" s="15"/>
     </row>
     <row r="287" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="15">
@@ -19866,18 +18180,12 @@
       </c>
       <c r="C287" s="15"/>
       <c r="D287" s="16"/>
-      <c r="E287" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E287" s="15"/>
       <c r="F287" s="17"/>
-      <c r="G287" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G287" s="15"/>
       <c r="H287" s="17"/>
       <c r="I287" s="17"/>
-      <c r="J287" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J287" s="15"/>
     </row>
     <row r="288" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="15">
@@ -19886,18 +18194,12 @@
       </c>
       <c r="C288" s="15"/>
       <c r="D288" s="16"/>
-      <c r="E288" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E288" s="15"/>
       <c r="F288" s="17"/>
-      <c r="G288" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G288" s="15"/>
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
-      <c r="J288" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J288" s="15"/>
     </row>
     <row r="289" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="15">
@@ -19906,18 +18208,12 @@
       </c>
       <c r="C289" s="15"/>
       <c r="D289" s="16"/>
-      <c r="E289" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E289" s="15"/>
       <c r="F289" s="17"/>
-      <c r="G289" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G289" s="15"/>
       <c r="H289" s="17"/>
       <c r="I289" s="17"/>
-      <c r="J289" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J289" s="15"/>
     </row>
     <row r="290" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="15">
@@ -19926,18 +18222,12 @@
       </c>
       <c r="C290" s="15"/>
       <c r="D290" s="16"/>
-      <c r="E290" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E290" s="15"/>
       <c r="F290" s="17"/>
-      <c r="G290" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G290" s="15"/>
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
-      <c r="J290" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J290" s="15"/>
     </row>
     <row r="291" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="15">
@@ -19946,18 +18236,12 @@
       </c>
       <c r="C291" s="15"/>
       <c r="D291" s="16"/>
-      <c r="E291" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E291" s="15"/>
       <c r="F291" s="17"/>
-      <c r="G291" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G291" s="15"/>
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
-      <c r="J291" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J291" s="15"/>
     </row>
     <row r="292" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="15">
@@ -19966,18 +18250,12 @@
       </c>
       <c r="C292" s="15"/>
       <c r="D292" s="16"/>
-      <c r="E292" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E292" s="15"/>
       <c r="F292" s="17"/>
-      <c r="G292" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G292" s="15"/>
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
-      <c r="J292" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J292" s="15"/>
     </row>
     <row r="293" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="15">
@@ -19986,18 +18264,12 @@
       </c>
       <c r="C293" s="15"/>
       <c r="D293" s="16"/>
-      <c r="E293" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E293" s="15"/>
       <c r="F293" s="17"/>
-      <c r="G293" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G293" s="15"/>
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
-      <c r="J293" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J293" s="15"/>
     </row>
     <row r="294" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="15">
@@ -20006,18 +18278,12 @@
       </c>
       <c r="C294" s="15"/>
       <c r="D294" s="16"/>
-      <c r="E294" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E294" s="15"/>
       <c r="F294" s="17"/>
-      <c r="G294" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G294" s="15"/>
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
-      <c r="J294" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J294" s="15"/>
     </row>
     <row r="295" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="15">
@@ -20026,18 +18292,12 @@
       </c>
       <c r="C295" s="15"/>
       <c r="D295" s="16"/>
-      <c r="E295" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E295" s="15"/>
       <c r="F295" s="17"/>
-      <c r="G295" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G295" s="15"/>
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
-      <c r="J295" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J295" s="15"/>
     </row>
     <row r="296" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="15">
@@ -20046,18 +18306,12 @@
       </c>
       <c r="C296" s="15"/>
       <c r="D296" s="16"/>
-      <c r="E296" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E296" s="15"/>
       <c r="F296" s="17"/>
-      <c r="G296" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G296" s="15"/>
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
-      <c r="J296" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J296" s="15"/>
     </row>
     <row r="297" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="15">
@@ -20066,18 +18320,12 @@
       </c>
       <c r="C297" s="15"/>
       <c r="D297" s="16"/>
-      <c r="E297" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E297" s="15"/>
       <c r="F297" s="17"/>
-      <c r="G297" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G297" s="15"/>
       <c r="H297" s="17"/>
       <c r="I297" s="17"/>
-      <c r="J297" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J297" s="15"/>
     </row>
     <row r="298" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="15">
@@ -20086,18 +18334,12 @@
       </c>
       <c r="C298" s="15"/>
       <c r="D298" s="16"/>
-      <c r="E298" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E298" s="15"/>
       <c r="F298" s="17"/>
-      <c r="G298" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G298" s="15"/>
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
-      <c r="J298" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J298" s="15"/>
     </row>
     <row r="299" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="15">
@@ -20106,18 +18348,12 @@
       </c>
       <c r="C299" s="15"/>
       <c r="D299" s="16"/>
-      <c r="E299" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E299" s="15"/>
       <c r="F299" s="17"/>
-      <c r="G299" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G299" s="15"/>
       <c r="H299" s="17"/>
       <c r="I299" s="17"/>
-      <c r="J299" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J299" s="15"/>
     </row>
     <row r="300" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="15">
@@ -20126,18 +18362,12 @@
       </c>
       <c r="C300" s="15"/>
       <c r="D300" s="16"/>
-      <c r="E300" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E300" s="15"/>
       <c r="F300" s="17"/>
-      <c r="G300" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G300" s="15"/>
       <c r="H300" s="17"/>
       <c r="I300" s="17"/>
-      <c r="J300" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J300" s="15"/>
     </row>
     <row r="301" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="15">
@@ -20146,18 +18376,12 @@
       </c>
       <c r="C301" s="15"/>
       <c r="D301" s="16"/>
-      <c r="E301" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E301" s="15"/>
       <c r="F301" s="17"/>
-      <c r="G301" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G301" s="15"/>
       <c r="H301" s="17"/>
       <c r="I301" s="17"/>
-      <c r="J301" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J301" s="15"/>
     </row>
     <row r="302" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="15">
@@ -20166,18 +18390,12 @@
       </c>
       <c r="C302" s="15"/>
       <c r="D302" s="16"/>
-      <c r="E302" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E302" s="15"/>
       <c r="F302" s="17"/>
-      <c r="G302" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G302" s="15"/>
       <c r="H302" s="17"/>
       <c r="I302" s="17"/>
-      <c r="J302" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J302" s="15"/>
     </row>
     <row r="303" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="15">
@@ -20186,18 +18404,12 @@
       </c>
       <c r="C303" s="15"/>
       <c r="D303" s="16"/>
-      <c r="E303" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E303" s="15"/>
       <c r="F303" s="17"/>
-      <c r="G303" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G303" s="15"/>
       <c r="H303" s="17"/>
       <c r="I303" s="17"/>
-      <c r="J303" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J303" s="15"/>
     </row>
     <row r="304" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="15">
@@ -20206,18 +18418,12 @@
       </c>
       <c r="C304" s="15"/>
       <c r="D304" s="16"/>
-      <c r="E304" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E304" s="15"/>
       <c r="F304" s="17"/>
-      <c r="G304" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G304" s="15"/>
       <c r="H304" s="17"/>
       <c r="I304" s="17"/>
-      <c r="J304" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J304" s="15"/>
     </row>
     <row r="305" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="15">
@@ -20226,18 +18432,12 @@
       </c>
       <c r="C305" s="15"/>
       <c r="D305" s="16"/>
-      <c r="E305" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E305" s="15"/>
       <c r="F305" s="17"/>
-      <c r="G305" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G305" s="15"/>
       <c r="H305" s="17"/>
       <c r="I305" s="17"/>
-      <c r="J305" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J305" s="15"/>
     </row>
     <row r="306" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="15">
@@ -20246,18 +18446,12 @@
       </c>
       <c r="C306" s="15"/>
       <c r="D306" s="16"/>
-      <c r="E306" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="E306" s="15"/>
       <c r="F306" s="17"/>
-      <c r="G306" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="G306" s="15"/>
       <c r="H306" s="17"/>
       <c r="I306" s="17"/>
-      <c r="J306" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J306" s="15"/>
     </row>
     <row r="307" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="308" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20388,7 +18582,6 @@
     <row r="433" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="434" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A6HOA5NLq/PhWKo5ay7L8DgN5T5+gAJzgIqnd4v9hrjAigWuyzG3KX3COnn0xZTtJQljbZB2oR7Umpl8YNU65Q==" saltValue="tn11nCyvzfLfQhC/wpZ3pw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="B4:C4"/>
